--- a/DgiData/EfConduccion/TunuyanSuperior/Efc_hijuela.xlsx
+++ b/DgiData/EfConduccion/TunuyanSuperior/Efc_hijuela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SebastianRiera/Google Drive/Laboro/ResearchProposals/UNCuyo/UNCuyoIrrigacion/FcaIrrigacion/FcaIrrigacion/DgiData/EfConduccion/TunuyanSuperior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9515AEE7-6BB8-294B-9AAE-905EFA0F374B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F9A20-0D49-EF4C-B4F2-7D416D4E5FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="460" windowWidth="18460" windowHeight="16000" tabRatio="866" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="460" windowWidth="24560" windowHeight="17540" tabRatio="866" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="18" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Yaucha- Aguanda" sheetId="19" r:id="rId15"/>
     <sheet name="Canal Capacho" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="144">
   <si>
     <t xml:space="preserve">Elemento de la red </t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t xml:space="preserve">Longitud total (Km) </t>
+  </si>
+  <si>
+    <t>CodigoCauce</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -912,12 +915,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1086,7 +1098,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1094,12 +1105,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1115,12 +1120,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1180,15 +1179,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1231,12 +1221,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1273,6 +1257,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1325,25 +1349,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1691,529 +1747,529 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="124"/>
-    <col min="3" max="3" width="15.83203125" style="124" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="116"/>
+    <col min="3" max="3" width="15.83203125" style="116" customWidth="1"/>
     <col min="4" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="125"/>
+    <col min="6" max="6" width="11.5" style="117"/>
     <col min="7" max="7" width="12" style="28" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="124" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="116" customWidth="1"/>
     <col min="9" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="127" t="s">
+      <c r="C1" s="150"/>
+      <c r="D1" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="142" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="129">
+      <c r="C2" s="146"/>
+      <c r="D2" s="119">
         <v>3125.8</v>
       </c>
-      <c r="E2" s="129">
+      <c r="E2" s="119">
         <v>126.72</v>
       </c>
-      <c r="F2" s="130">
+      <c r="F2" s="120">
         <v>18.25</v>
       </c>
-      <c r="G2" s="130">
+      <c r="G2" s="120">
         <v>0.99</v>
       </c>
-      <c r="H2" s="131">
+      <c r="H2" s="121">
         <v>105.12</v>
       </c>
-      <c r="I2" s="130">
+      <c r="I2" s="120">
         <v>14.4</v>
       </c>
-      <c r="J2" s="130">
-        <f>'Ef-Mz Este unifi'!B26</f>
+      <c r="J2" s="120">
+        <f>'Ef-Mz Este unifi'!B24</f>
         <v>0.97153463288193909</v>
       </c>
-      <c r="K2" s="132">
+      <c r="K2" s="122">
         <f>G2*J2</f>
         <v>0.96181928655311966</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="133">
+      <c r="C3" s="118"/>
+      <c r="D3" s="123">
         <v>655.20000000000005</v>
       </c>
-      <c r="E3" s="134">
+      <c r="E3" s="124">
         <v>21.073</v>
       </c>
-      <c r="F3" s="135">
+      <c r="F3" s="125">
         <v>2.12</v>
       </c>
-      <c r="G3" s="135">
+      <c r="G3" s="125">
         <v>0.99</v>
       </c>
-      <c r="H3" s="135">
+      <c r="H3" s="125">
         <v>18.79</v>
       </c>
-      <c r="I3" s="135">
+      <c r="I3" s="125">
         <v>10.09</v>
       </c>
-      <c r="J3" s="135">
+      <c r="J3" s="125">
         <f>'El Peral Unificado'!B25</f>
         <v>0.91587531424469892</v>
       </c>
-      <c r="K3" s="136">
+      <c r="K3" s="126">
         <f t="shared" ref="K3:K16" si="0">G3*J3</f>
         <v>0.90671656110225196</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="137">
+      <c r="C4" s="146"/>
+      <c r="D4" s="127">
         <v>2080.9</v>
       </c>
-      <c r="E4" s="137">
+      <c r="E4" s="127">
         <v>21.88</v>
       </c>
-      <c r="F4" s="138">
+      <c r="F4" s="128">
         <v>0.9</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="128">
         <v>0.99</v>
       </c>
-      <c r="H4" s="137">
+      <c r="H4" s="127">
         <v>20.97</v>
       </c>
-      <c r="I4" s="138">
+      <c r="I4" s="128">
         <v>4.13</v>
       </c>
-      <c r="J4" s="138">
+      <c r="J4" s="128">
         <f>'Hij. Gualtallary'!B24</f>
         <v>0.90648884645473804</v>
       </c>
-      <c r="K4" s="139">
+      <c r="K4" s="129">
         <f t="shared" si="0"/>
         <v>0.8974239579901907</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="133">
+      <c r="C5" s="118"/>
+      <c r="D5" s="123">
         <v>1458.9</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="123">
         <v>73.53</v>
       </c>
-      <c r="F5" s="140">
+      <c r="F5" s="130">
         <v>20.56</v>
       </c>
-      <c r="G5" s="135">
+      <c r="G5" s="125">
         <v>0.99</v>
       </c>
-      <c r="H5" s="140">
+      <c r="H5" s="130">
         <v>52.97</v>
       </c>
-      <c r="I5" s="135">
+      <c r="I5" s="125">
         <v>28</v>
       </c>
-      <c r="J5" s="135">
+      <c r="J5" s="125">
         <f>'Ef-Cº Esquina unif'!B26</f>
         <v>0.91584595368585853</v>
       </c>
-      <c r="K5" s="136">
+      <c r="K5" s="126">
         <f t="shared" si="0"/>
         <v>0.90668749414899996</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="137">
+      <c r="C6" s="146"/>
+      <c r="D6" s="127">
         <v>927.9</v>
       </c>
-      <c r="E6" s="137">
+      <c r="E6" s="127">
         <v>15.56</v>
       </c>
-      <c r="F6" s="137">
+      <c r="F6" s="127">
         <v>5.78</v>
       </c>
-      <c r="G6" s="138">
+      <c r="G6" s="128">
         <v>0.99</v>
       </c>
-      <c r="H6" s="137">
+      <c r="H6" s="127">
         <v>10.119999999999999</v>
       </c>
-      <c r="I6" s="138">
+      <c r="I6" s="128">
         <v>34.96</v>
       </c>
-      <c r="J6" s="138">
+      <c r="J6" s="128">
         <f>'A° Río de La Pampa '!B24</f>
         <v>0.94424934322477461</v>
       </c>
-      <c r="K6" s="139">
+      <c r="K6" s="129">
         <f t="shared" si="0"/>
         <v>0.93480684979252682</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="133">
+      <c r="C7" s="118"/>
+      <c r="D7" s="123">
         <v>565.5</v>
       </c>
-      <c r="E7" s="133">
+      <c r="E7" s="123">
         <v>31.52</v>
       </c>
-      <c r="F7" s="140">
+      <c r="F7" s="130">
         <v>8.24</v>
       </c>
-      <c r="G7" s="135">
+      <c r="G7" s="125">
         <v>0.99</v>
       </c>
-      <c r="H7" s="140">
+      <c r="H7" s="130">
         <v>23.28</v>
       </c>
-      <c r="I7" s="135">
+      <c r="I7" s="125">
         <v>26.2</v>
       </c>
-      <c r="J7" s="135">
+      <c r="J7" s="125">
         <f>'HªLa Pampa'!B24</f>
         <v>0.81059456840501753</v>
       </c>
-      <c r="K7" s="136">
+      <c r="K7" s="126">
         <f t="shared" si="0"/>
         <v>0.80248862272096733</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="137">
+      <c r="C8" s="146"/>
+      <c r="D8" s="127">
         <v>1448.3</v>
       </c>
-      <c r="E8" s="137">
+      <c r="E8" s="127">
         <v>47.73</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="127">
         <v>4.58</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="128">
         <v>0.99</v>
       </c>
-      <c r="H8" s="137">
+      <c r="H8" s="127">
         <v>43.09</v>
       </c>
-      <c r="I8" s="137">
+      <c r="I8" s="127">
         <v>13.4</v>
       </c>
-      <c r="J8" s="138">
+      <c r="J8" s="128">
         <f>'Arroyo Villegas'!B25</f>
         <v>0.79980373204631294</v>
       </c>
-      <c r="K8" s="139">
+      <c r="K8" s="129">
         <f t="shared" si="0"/>
         <v>0.79180569472584983</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="133">
+      <c r="C9" s="118"/>
+      <c r="D9" s="123">
         <v>198.7</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="124">
         <v>4</v>
       </c>
-      <c r="F9" s="140">
+      <c r="F9" s="130">
         <v>0</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="125">
         <v>0.99</v>
       </c>
-      <c r="H9" s="140">
+      <c r="H9" s="130">
         <v>1.47</v>
       </c>
-      <c r="I9" s="140">
+      <c r="I9" s="130">
         <v>9.61</v>
       </c>
-      <c r="J9" s="135">
+      <c r="J9" s="125">
         <f>'La Quebrada'!B24</f>
         <v>0.88108334368852292</v>
       </c>
-      <c r="K9" s="136">
+      <c r="K9" s="126">
         <f t="shared" si="0"/>
         <v>0.87227251025163766</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="137">
+      <c r="C10" s="146"/>
+      <c r="D10" s="127">
         <v>1482.3</v>
       </c>
-      <c r="E10" s="137">
+      <c r="E10" s="127">
         <v>55.64</v>
       </c>
-      <c r="F10" s="137">
+      <c r="F10" s="127">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G10" s="138">
+      <c r="G10" s="128">
         <v>0.99</v>
       </c>
-      <c r="H10" s="137">
+      <c r="H10" s="127">
         <v>47.43</v>
       </c>
-      <c r="I10" s="137">
+      <c r="I10" s="127">
         <v>0</v>
       </c>
-      <c r="J10" s="138">
+      <c r="J10" s="128">
         <f>'Arroyo Grande'!B25</f>
         <v>0.79187491732581761</v>
       </c>
-      <c r="K10" s="139">
+      <c r="K10" s="129">
         <f t="shared" si="0"/>
         <v>0.78395616815255942</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="133">
+      <c r="C11" s="148"/>
+      <c r="D11" s="123">
         <v>4869.1000000000004</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="123">
         <v>81.417000000000002</v>
       </c>
-      <c r="F11" s="140">
+      <c r="F11" s="130">
         <v>13.24</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="125">
         <v>0.99</v>
       </c>
-      <c r="H11" s="140">
+      <c r="H11" s="130">
         <v>64.790000000000006</v>
       </c>
-      <c r="I11" s="140">
+      <c r="I11" s="130">
         <v>12</v>
       </c>
-      <c r="J11" s="135">
+      <c r="J11" s="125">
         <f>'Canal Vista Flores'!B24</f>
         <v>0.77577327362049575</v>
       </c>
-      <c r="K11" s="136">
+      <c r="K11" s="126">
         <f>G11*J11</f>
         <v>0.7680155408842908</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="137">
+      <c r="C12" s="146"/>
+      <c r="D12" s="127">
         <v>2339.3000000000002</v>
       </c>
-      <c r="E12" s="137">
+      <c r="E12" s="127">
         <v>47.71</v>
       </c>
-      <c r="F12" s="137">
+      <c r="F12" s="127">
         <v>62.74</v>
       </c>
-      <c r="G12" s="138">
+      <c r="G12" s="128">
         <v>0.99</v>
       </c>
-      <c r="H12" s="137">
+      <c r="H12" s="127">
         <v>40.69</v>
       </c>
-      <c r="I12" s="137">
+      <c r="I12" s="127">
         <v>13.4</v>
       </c>
-      <c r="J12" s="138">
+      <c r="J12" s="128">
         <f>'Canal Manzano'!B25</f>
         <v>0.78847014673881266</v>
       </c>
-      <c r="K12" s="139">
+      <c r="K12" s="129">
         <f t="shared" si="0"/>
         <v>0.78058544527142448</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="133">
+      <c r="C13" s="148"/>
+      <c r="D13" s="123">
         <v>851.5</v>
       </c>
-      <c r="E13" s="133">
+      <c r="E13" s="123">
         <v>31.46</v>
       </c>
-      <c r="F13" s="140">
+      <c r="F13" s="130">
         <v>94.71</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="125">
         <v>0.99</v>
       </c>
-      <c r="H13" s="140">
+      <c r="H13" s="130">
         <v>27.65</v>
       </c>
-      <c r="I13" s="140">
+      <c r="I13" s="130">
         <v>7</v>
       </c>
-      <c r="J13" s="135">
+      <c r="J13" s="125">
         <f>'Canal Rincón'!B25</f>
         <v>0.73465282150495881</v>
       </c>
-      <c r="K13" s="136">
+      <c r="K13" s="126">
         <f t="shared" si="0"/>
         <v>0.72730629328990926</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="137">
+      <c r="C14" s="146"/>
+      <c r="D14" s="127">
         <v>10164.4</v>
       </c>
-      <c r="E14" s="137">
+      <c r="E14" s="127">
         <v>351.17</v>
       </c>
-      <c r="F14" s="137">
+      <c r="F14" s="127">
         <v>22.94</v>
       </c>
-      <c r="G14" s="138">
+      <c r="G14" s="128">
         <v>0.99</v>
       </c>
-      <c r="H14" s="137">
+      <c r="H14" s="127">
         <v>328.22</v>
       </c>
-      <c r="I14" s="137">
+      <c r="I14" s="127">
         <v>6.53</v>
       </c>
-      <c r="J14" s="138">
+      <c r="J14" s="128">
         <f>'Ef-Mz valle Uco'!B26</f>
         <v>0.74289536131149481</v>
       </c>
-      <c r="K14" s="139">
+      <c r="K14" s="129">
         <f t="shared" si="0"/>
         <v>0.7354664076983799</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="140">
+      <c r="C15" s="148"/>
+      <c r="D15" s="130">
         <v>8126.2</v>
       </c>
-      <c r="E15" s="140">
+      <c r="E15" s="130">
         <v>349</v>
       </c>
-      <c r="F15" s="140">
+      <c r="F15" s="130">
         <v>64</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="125">
         <v>0.99</v>
       </c>
-      <c r="H15" s="140">
+      <c r="H15" s="130">
         <v>284</v>
       </c>
-      <c r="I15" s="140">
+      <c r="I15" s="130">
         <v>18.55</v>
       </c>
-      <c r="J15" s="135">
+      <c r="J15" s="125">
         <f>'Yaucha- Aguanda'!B26</f>
         <v>0.70398406905641164</v>
       </c>
-      <c r="K15" s="136">
+      <c r="K15" s="126">
         <f t="shared" si="0"/>
         <v>0.69694422836584757</v>
       </c>
-      <c r="L15" s="124"/>
+      <c r="L15" s="116"/>
     </row>
     <row r="16" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="137">
+      <c r="C16" s="146"/>
+      <c r="D16" s="127">
         <v>1025.7</v>
       </c>
-      <c r="E16" s="137">
+      <c r="E16" s="127">
         <v>24.23</v>
       </c>
-      <c r="F16" s="137">
+      <c r="F16" s="127">
         <v>0.54</v>
       </c>
-      <c r="G16" s="138">
+      <c r="G16" s="128">
         <v>0.99</v>
       </c>
-      <c r="H16" s="137">
+      <c r="H16" s="127">
         <v>23.68</v>
       </c>
-      <c r="I16" s="137">
+      <c r="I16" s="127">
         <v>2.25</v>
       </c>
-      <c r="J16" s="138">
+      <c r="J16" s="128">
         <f>'Canal Capacho'!B24</f>
         <v>0.72074770166015267</v>
       </c>
-      <c r="K16" s="139">
+      <c r="K16" s="129">
         <f t="shared" si="0"/>
         <v>0.71354022464355116</v>
       </c>
@@ -2245,7 +2301,7 @@
   </sheetPr>
   <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2259,7 +2315,7 @@
       <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2298,10 +2354,10 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="95">
         <v>0.05</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="95">
         <v>0.40300000000000002</v>
       </c>
     </row>
@@ -2467,8 +2523,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2487,7 +2543,7 @@
       <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="93">
+      <c r="B23" s="88">
         <v>179.98</v>
       </c>
       <c r="C23" s="65">
@@ -2502,15 +2558,15 @@
       <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="102">
+      <c r="B24" s="97">
         <f>B22*B23</f>
         <v>146.48101542744047</v>
       </c>
-      <c r="C24" s="102">
+      <c r="C24" s="97">
         <f>C22*C23</f>
         <v>1027.3151745246189</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="89">
         <f>SUM(B24:C24)</f>
         <v>1173.7961899520594</v>
       </c>
@@ -2537,8 +2593,8 @@
   </sheetPr>
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2548,10 +2604,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="147"/>
+      <c r="C2" s="151"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2579,10 +2635,10 @@
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="87">
         <v>5.4379999999999997</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="87">
         <v>64.793999999999997</v>
       </c>
     </row>
@@ -2590,10 +2646,10 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="87">
         <v>0.12</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="87">
         <v>1.38</v>
       </c>
     </row>
@@ -2785,7 +2841,7 @@
       <c r="C22" s="56">
         <v>4479.5200000000004</v>
       </c>
-      <c r="D22" s="112">
+      <c r="D22" s="104">
         <f>SUM(B22:C22)</f>
         <v>4869.0400000000009</v>
       </c>
@@ -2802,7 +2858,7 @@
         <f>C21*C22</f>
         <v>3435.2941550052806</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="106">
         <f>SUM(B23:C23)</f>
         <v>3777.2711001891394</v>
       </c>
@@ -2811,11 +2867,11 @@
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="96">
         <f>D23/D22</f>
         <v>0.77577327362049575</v>
       </c>
-      <c r="C24" s="115"/>
+      <c r="C24" s="107"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="26" t="s">
@@ -2826,19 +2882,19 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="111">
+      <c r="B27" s="103">
         <v>1898.5194000000024</v>
       </c>
-      <c r="C27" s="151" t="e">
+      <c r="C27" s="155" t="e">
         <f>#REF!*B29/1000</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="111">
+      <c r="B28" s="103">
         <v>250.28260000000009</v>
       </c>
-      <c r="C28" s="151"/>
+      <c r="C28" s="155"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29">
@@ -2863,7 +2919,7 @@
   </sheetPr>
   <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2873,10 +2929,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2915,10 +2971,10 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="93">
         <v>0.10100000000000001</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="93">
         <v>0.62</v>
       </c>
     </row>
@@ -3084,8 +3140,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -3111,7 +3167,7 @@
       <c r="C23" s="57">
         <v>2010.44</v>
       </c>
-      <c r="D23" s="112">
+      <c r="D23" s="104">
         <f>SUM(B23:C23)</f>
         <v>2339.3000000000002</v>
       </c>
@@ -3120,15 +3176,15 @@
       <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="102">
+      <c r="B24" s="97">
         <f>B22*B23</f>
         <v>282.12469382815976</v>
       </c>
-      <c r="C24" s="102">
+      <c r="C24" s="97">
         <f>C22*C23</f>
         <v>1562.343520437945</v>
       </c>
-      <c r="D24" s="112">
+      <c r="D24" s="104">
         <f>SUM(B24:C24)</f>
         <v>1844.4682142661047</v>
       </c>
@@ -3137,11 +3193,11 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="101">
+      <c r="B25" s="96">
         <f>D24/D23</f>
         <v>0.78847014673881266</v>
       </c>
-      <c r="C25" s="117"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="28"/>
     </row>
   </sheetData>
@@ -3157,7 +3213,7 @@
   </sheetPr>
   <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="169" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3169,10 +3225,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="150"/>
+      <c r="C3" s="154"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3211,10 +3267,10 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="93">
         <v>1.4E-2</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="95">
         <v>0.249</v>
       </c>
     </row>
@@ -3380,34 +3436,34 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="116"/>
-      <c r="C21" s="103"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="98"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="119">
+      <c r="B22" s="111">
         <f>B20</f>
         <v>0.85821755826088186</v>
       </c>
-      <c r="C22" s="120">
+      <c r="C22" s="112">
         <f>C20</f>
         <v>0.72727449107192754</v>
       </c>
-      <c r="D22" s="115"/>
+      <c r="D22" s="107"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="119">
+      <c r="B23" s="111">
         <v>47.98</v>
       </c>
-      <c r="C23" s="120">
+      <c r="C23" s="112">
         <v>803.52</v>
       </c>
-      <c r="D23" s="113">
+      <c r="D23" s="105">
         <f>SUM(B23:C23)</f>
         <v>851.5</v>
       </c>
@@ -3416,15 +3472,15 @@
       <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="121">
+      <c r="B24" s="113">
         <f>B22*B23</f>
         <v>41.177278445357111</v>
       </c>
-      <c r="C24" s="122">
+      <c r="C24" s="114">
         <f>C22*C23</f>
         <v>584.37959906611525</v>
       </c>
-      <c r="D24" s="115">
+      <c r="D24" s="107">
         <f>SUM(B24:C24)</f>
         <v>625.55687751147241</v>
       </c>
@@ -3433,12 +3489,12 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="118">
+      <c r="B25" s="110">
         <f>D24/D23</f>
         <v>0.73465282150495881</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3454,10 +3510,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
-  <dimension ref="A2:O59"/>
+  <dimension ref="A2:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3467,28 +3523,29 @@
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11" style="171" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -3497,59 +3554,64 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="155" t="s">
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="161"/>
+      <c r="D5" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="152" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="173" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="153"/>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="157"/>
+      <c r="I5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="J5" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="152" t="s">
+      <c r="L5" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="153"/>
-      <c r="M5" s="154" t="s">
+      <c r="M5" s="157"/>
+      <c r="N5" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="154"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="158"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3565,14 +3627,12 @@
       <c r="E6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>2</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>2</v>
@@ -3581,19 +3641,22 @@
         <v>2</v>
       </c>
       <c r="K6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="N6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="O6" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3609,89 +3672,91 @@
       <c r="E7" s="30">
         <v>103</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="71"/>
+      <c r="G7" s="30">
         <v>4.84</v>
       </c>
-      <c r="G7" s="30">
+      <c r="H7" s="30">
         <v>82.71</v>
       </c>
-      <c r="H7" s="30">
+      <c r="I7" s="30">
         <v>22.33</v>
       </c>
-      <c r="I7" s="30">
+      <c r="J7" s="30">
         <v>15.28</v>
       </c>
-      <c r="J7" s="30">
+      <c r="K7" s="30">
         <v>8.32</v>
       </c>
-      <c r="K7" s="30">
+      <c r="L7" s="30">
         <v>18.41</v>
       </c>
-      <c r="L7" s="30">
+      <c r="M7" s="30">
         <v>8.33</v>
       </c>
-      <c r="M7" s="30">
+      <c r="N7" s="30">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N7" s="30">
+      <c r="O7" s="30">
         <v>27.01</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="93">
         <f>0.31*B24/1000</f>
         <v>5.1041499999999997E-2</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="93">
         <f>0.31*C24/1000</f>
         <v>7.9787800000000006E-2</v>
       </c>
-      <c r="D8" s="98">
-        <f t="shared" ref="D8:G8" si="0">0.31*D24/1000</f>
+      <c r="D8" s="93">
+        <f t="shared" ref="D8:H8" si="0">0.31*D24/1000</f>
         <v>8.8455400000000003E-2</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="93">
         <f t="shared" si="0"/>
         <v>1.0168806000000001</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="87"/>
+      <c r="G8" s="93">
         <f t="shared" si="0"/>
         <v>5.2495400000000005E-2</v>
       </c>
-      <c r="G8" s="98">
+      <c r="H8" s="93">
         <f t="shared" si="0"/>
         <v>0.82238660000000008</v>
       </c>
-      <c r="H8" s="30">
+      <c r="I8" s="30">
         <v>0.18</v>
-      </c>
-      <c r="I8" s="30">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J8" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K8" s="100">
-        <f t="shared" ref="K8:N8" si="1">0.31*K24/1000</f>
+      <c r="K8" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L8" s="95">
+        <f t="shared" ref="L8:O8" si="1">0.31*L24/1000</f>
         <v>0.31748650000000006</v>
       </c>
-      <c r="L8" s="100">
+      <c r="M8" s="95">
         <f t="shared" si="1"/>
         <v>0.14348349999999999</v>
       </c>
-      <c r="M8" s="100">
+      <c r="N8" s="95">
         <f t="shared" si="1"/>
         <v>3.6108800000000003E-2</v>
       </c>
-      <c r="N8" s="100">
+      <c r="O8" s="95">
         <f t="shared" si="1"/>
         <v>0.18984709999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3707,35 +3772,36 @@
       <c r="E9" s="50">
         <v>1.5</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="174"/>
+      <c r="G9" s="49">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G9" s="50">
+      <c r="H9" s="50">
         <v>1.6</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>2.1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>1.25</v>
       </c>
-      <c r="K9" s="66">
+      <c r="L9" s="66">
         <v>1.7</v>
       </c>
-      <c r="L9" s="13">
+      <c r="M9" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M9" s="12">
+      <c r="N9" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N9" s="13">
+      <c r="O9" s="13">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -3751,14 +3817,12 @@
       <c r="E10" s="52">
         <v>0.34</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="175"/>
+      <c r="G10" s="51">
         <v>0.49</v>
       </c>
-      <c r="G10" s="52">
+      <c r="H10" s="52">
         <v>0.49</v>
-      </c>
-      <c r="H10" s="57">
-        <v>0.3</v>
       </c>
       <c r="I10" s="57">
         <v>0.3</v>
@@ -3766,20 +3830,23 @@
       <c r="J10" s="57">
         <v>0.3</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="38">
         <v>0.52</v>
       </c>
-      <c r="L10" s="33">
+      <c r="M10" s="33">
         <v>0.52</v>
       </c>
-      <c r="M10" s="32">
+      <c r="N10" s="32">
         <v>0.52</v>
       </c>
-      <c r="N10" s="33">
+      <c r="O10" s="33">
         <v>0.52</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3795,40 +3862,41 @@
       <c r="E11" s="52">
         <v>1.4</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="175"/>
+      <c r="G11" s="51">
         <v>1.2</v>
       </c>
-      <c r="G11" s="52">
+      <c r="H11" s="52">
         <v>1</v>
       </c>
-      <c r="H11" s="58">
+      <c r="I11" s="58">
         <v>1</v>
       </c>
-      <c r="I11" s="57">
+      <c r="J11" s="57">
         <v>1.2</v>
       </c>
-      <c r="J11" s="65">
+      <c r="K11" s="65">
         <v>1.2</v>
       </c>
-      <c r="K11" s="38">
+      <c r="L11" s="38">
         <v>1.4</v>
       </c>
-      <c r="L11" s="33">
+      <c r="M11" s="33">
         <v>1</v>
       </c>
-      <c r="M11" s="32">
+      <c r="N11" s="32">
         <v>0.8</v>
       </c>
-      <c r="N11" s="33">
+      <c r="O11" s="33">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="34">
-        <f t="shared" ref="B12:G12" si="2">B8/B9</f>
+        <f t="shared" ref="B12:H12" si="2">B8/B9</f>
         <v>4.08332E-2</v>
       </c>
       <c r="C12" s="35">
@@ -3843,49 +3911,50 @@
         <f t="shared" si="2"/>
         <v>0.67792040000000009</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="175"/>
+      <c r="G12" s="53">
         <f t="shared" si="2"/>
         <v>4.7723090909090909E-2</v>
       </c>
-      <c r="G12" s="54">
+      <c r="H12" s="54">
         <f t="shared" si="2"/>
         <v>0.51399162500000006</v>
       </c>
-      <c r="H12" s="59">
-        <f>H8/H9</f>
-        <v>8.5714285714285701E-2</v>
-      </c>
       <c r="I12" s="59">
         <f>I8/I9</f>
-        <v>6.3636363636363644E-2</v>
+        <v>8.5714285714285701E-2</v>
       </c>
       <c r="J12" s="59">
         <f>J8/J9</f>
+        <v>6.3636363636363644E-2</v>
+      </c>
+      <c r="K12" s="59">
+        <f>K8/K9</f>
         <v>5.6000000000000008E-2</v>
       </c>
-      <c r="K12" s="38">
-        <f t="shared" ref="K12" si="3">K8/K9</f>
+      <c r="L12" s="38">
+        <f t="shared" ref="L12" si="3">L8/L9</f>
         <v>0.1867567647058824</v>
       </c>
-      <c r="L12" s="35">
-        <f t="shared" ref="L12" si="4">L8/L9</f>
+      <c r="M12" s="35">
+        <f t="shared" ref="M12" si="4">M8/M9</f>
         <v>0.13043954545454542</v>
       </c>
-      <c r="M12" s="34">
-        <f>M8/M9</f>
+      <c r="N12" s="34">
+        <f>N8/N9</f>
         <v>3.2826181818181817E-2</v>
       </c>
-      <c r="N12" s="35">
-        <f>N8/N9</f>
+      <c r="O12" s="35">
+        <f>O8/O9</f>
         <v>0.1725882727272727</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="34">
-        <f t="shared" ref="B13:L13" si="5">B12/B11</f>
+        <f t="shared" ref="B13:M13" si="5">B12/B11</f>
         <v>3.4027666666666671E-2</v>
       </c>
       <c r="C13" s="35">
@@ -3900,49 +3969,50 @@
         <f t="shared" si="5"/>
         <v>0.48422885714285724</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="172"/>
+      <c r="G13" s="34">
         <f t="shared" si="5"/>
         <v>3.9769242424242429E-2</v>
       </c>
-      <c r="G13" s="35">
+      <c r="H13" s="35">
         <f t="shared" si="5"/>
         <v>0.51399162500000006</v>
       </c>
-      <c r="H13" s="59">
+      <c r="I13" s="59">
         <f t="shared" si="5"/>
         <v>8.5714285714285701E-2</v>
       </c>
-      <c r="I13" s="59">
+      <c r="J13" s="59">
         <f t="shared" si="5"/>
         <v>5.3030303030303039E-2</v>
       </c>
-      <c r="J13" s="59">
-        <f>J12/J11</f>
+      <c r="K13" s="59">
+        <f>K12/K11</f>
         <v>4.6666666666666676E-2</v>
       </c>
-      <c r="K13" s="34">
+      <c r="L13" s="34">
         <f t="shared" si="5"/>
         <v>0.13339768907563029</v>
       </c>
-      <c r="L13" s="35">
+      <c r="M13" s="35">
         <f t="shared" si="5"/>
         <v>0.13043954545454542</v>
       </c>
-      <c r="M13" s="34">
-        <f>M12/M11</f>
+      <c r="N13" s="34">
+        <f>N12/N11</f>
         <v>4.1032727272727269E-2</v>
       </c>
-      <c r="N13" s="35">
-        <f>N12/N11</f>
+      <c r="O13" s="35">
+        <f>O12/O11</f>
         <v>0.21573534090909086</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="34">
-        <f t="shared" ref="B14:L14" si="6">0.018*B10*B11*(B13^0.5)</f>
+        <f t="shared" ref="B14:M14" si="6">0.018*B10*B11*(B13^0.5)</f>
         <v>1.3945621712924813E-3</v>
       </c>
       <c r="C14" s="35">
@@ -3957,49 +4027,50 @@
         <f t="shared" si="6"/>
         <v>5.9621759921746689E-3</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="172"/>
+      <c r="G14" s="34">
         <f t="shared" si="6"/>
         <v>2.1106853229895819E-3</v>
       </c>
-      <c r="G14" s="35">
+      <c r="H14" s="35">
         <f t="shared" si="6"/>
         <v>6.3233410542726538E-3</v>
       </c>
-      <c r="H14" s="59">
+      <c r="I14" s="59">
         <f t="shared" si="6"/>
         <v>1.5809581181766234E-3</v>
       </c>
-      <c r="I14" s="59">
+      <c r="J14" s="59">
         <f t="shared" si="6"/>
         <v>1.4922344441687559E-3</v>
       </c>
-      <c r="J14" s="59">
-        <f>0.018*J10*J11*(J13^0.5)</f>
+      <c r="K14" s="59">
+        <f>0.018*K10*K11*(K13^0.5)</f>
         <v>1.3998399908560976E-3</v>
       </c>
-      <c r="K14" s="34">
+      <c r="L14" s="34">
         <f t="shared" si="6"/>
         <v>4.7860588833033664E-3</v>
       </c>
-      <c r="L14" s="35">
+      <c r="M14" s="35">
         <f t="shared" si="6"/>
         <v>3.3804964726286205E-3</v>
       </c>
-      <c r="M14" s="34">
-        <f>0.018*M10*M11*(M13^0.5)</f>
+      <c r="N14" s="34">
+        <f>0.018*N10*N11*(N13^0.5)</f>
         <v>1.5168094563571739E-3</v>
       </c>
-      <c r="N14" s="35">
-        <f>0.018*N10*N11*(N13^0.5)</f>
+      <c r="O14" s="35">
+        <f>0.018*O10*O11*(O13^0.5)</f>
         <v>3.4779752199608637E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="34">
-        <f t="shared" ref="B15:G15" si="7">B12^0.25</f>
+        <f t="shared" ref="B15:H15" si="7">B12^0.25</f>
         <v>0.44952448687658847</v>
       </c>
       <c r="C15" s="35">
@@ -4014,49 +4085,50 @@
         <f t="shared" si="7"/>
         <v>0.90739143530622857</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="172"/>
+      <c r="G15" s="34">
         <f t="shared" si="7"/>
         <v>0.46739293243192614</v>
       </c>
-      <c r="G15" s="35">
+      <c r="H15" s="35">
         <f t="shared" si="7"/>
         <v>0.84671842564170208</v>
       </c>
-      <c r="H15" s="59">
-        <f t="shared" ref="H15:I15" si="8">H12^0.25</f>
+      <c r="I15" s="59">
+        <f t="shared" ref="I15:J15" si="8">I12^0.25</f>
         <v>0.54108226905393964</v>
       </c>
-      <c r="I15" s="59">
+      <c r="J15" s="59">
         <f t="shared" si="8"/>
         <v>0.50225739372831191</v>
       </c>
-      <c r="J15" s="59">
-        <f>J12^0.25</f>
+      <c r="K15" s="59">
+        <f>K12^0.25</f>
         <v>0.48645985581955747</v>
       </c>
-      <c r="K15" s="34">
-        <f t="shared" ref="K15" si="9">K12^0.25</f>
+      <c r="L15" s="34">
+        <f t="shared" ref="L15" si="9">L12^0.25</f>
         <v>0.65738393312791565</v>
       </c>
-      <c r="L15" s="35">
-        <f t="shared" ref="L15" si="10">L12^0.25</f>
+      <c r="M15" s="35">
+        <f t="shared" ref="M15" si="10">M12^0.25</f>
         <v>0.60096934452483786</v>
       </c>
-      <c r="M15" s="34">
-        <f>M12^0.25</f>
+      <c r="N15" s="34">
+        <f>N12^0.25</f>
         <v>0.42565240607507066</v>
       </c>
-      <c r="N15" s="35">
-        <f>N12^0.25</f>
+      <c r="O15" s="35">
+        <f>O12^0.25</f>
         <v>0.64454437196374836</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="34">
-        <f t="shared" ref="B16:L16" si="11">B14/B15</f>
+        <f t="shared" ref="B16:M16" si="11">B14/B15</f>
         <v>3.1023052403268557E-3</v>
       </c>
       <c r="C16" s="35">
@@ -4071,49 +4143,50 @@
         <f t="shared" si="11"/>
         <v>6.5706769539460551E-3</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="172"/>
+      <c r="G16" s="34">
         <f t="shared" si="11"/>
         <v>4.5158691467740465E-3</v>
       </c>
-      <c r="G16" s="35">
+      <c r="H16" s="35">
         <f t="shared" si="11"/>
         <v>7.4680565141598118E-3</v>
       </c>
-      <c r="H16" s="59">
+      <c r="I16" s="59">
         <f t="shared" si="11"/>
         <v>2.9218442528912737E-3</v>
       </c>
-      <c r="I16" s="59">
+      <c r="J16" s="59">
         <f t="shared" si="11"/>
         <v>2.9710552055625013E-3</v>
       </c>
-      <c r="J16" s="59">
-        <f>J14/J15</f>
+      <c r="K16" s="59">
+        <f>K14/K15</f>
         <v>2.8776063926132895E-3</v>
       </c>
-      <c r="K16" s="34">
+      <c r="L16" s="34">
         <f t="shared" si="11"/>
         <v>7.2804622110715341E-3</v>
       </c>
-      <c r="L16" s="35">
+      <c r="M16" s="35">
         <f t="shared" si="11"/>
         <v>5.6250730647524833E-3</v>
       </c>
-      <c r="M16" s="34">
-        <f>M14/M15</f>
+      <c r="N16" s="34">
+        <f>N14/N15</f>
         <v>3.5634932040996383E-3</v>
       </c>
-      <c r="N16" s="35">
-        <f>N14/N15</f>
+      <c r="O16" s="35">
+        <f>O14/O15</f>
         <v>5.3960213931655869E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="34">
-        <f t="shared" ref="B17:G17" si="12">B16*B7</f>
+        <f t="shared" ref="B17:H17" si="12">B16*B7</f>
         <v>1.9482476909252654E-2</v>
       </c>
       <c r="C17" s="35">
@@ -4128,49 +4201,50 @@
         <f t="shared" si="12"/>
         <v>0.67677972625644367</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="172"/>
+      <c r="G17" s="34">
         <f t="shared" si="12"/>
         <v>2.1856806670386385E-2</v>
       </c>
-      <c r="G17" s="35">
+      <c r="H17" s="35">
         <f t="shared" si="12"/>
         <v>0.61768295428615794</v>
       </c>
-      <c r="H17" s="59">
-        <f>H16*G7</f>
-        <v>0.24166573815663722</v>
-      </c>
       <c r="I17" s="59">
         <f>I16*H7</f>
+        <v>0.24166573815663722</v>
+      </c>
+      <c r="J17" s="59">
+        <f>J16*I7</f>
         <v>6.6343662740210654E-2</v>
       </c>
-      <c r="J17" s="59">
-        <f>J16*J7</f>
+      <c r="K17" s="59">
+        <f>K16*K7</f>
         <v>2.394168518654257E-2</v>
       </c>
-      <c r="K17" s="34">
-        <f t="shared" ref="K17:L17" si="13">K16*K7</f>
+      <c r="L17" s="34">
+        <f t="shared" ref="L17:M17" si="13">L16*L7</f>
         <v>0.13403330930582694</v>
       </c>
-      <c r="L17" s="35">
+      <c r="M17" s="35">
         <f t="shared" si="13"/>
         <v>4.6856858629388189E-2</v>
       </c>
-      <c r="M17" s="34">
-        <f>M16*M7</f>
+      <c r="N17" s="34">
+        <f>N16*N7</f>
         <v>1.8173815340908155E-2</v>
       </c>
-      <c r="N17" s="35">
-        <f>N16*N7</f>
+      <c r="O17" s="35">
+        <f>O16*O7</f>
         <v>0.1457465378294025</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="36">
-        <f t="shared" ref="B18:G18" si="14">B17/B8</f>
+        <f t="shared" ref="B18:H18" si="14">B17/B8</f>
         <v>0.38169875315679702</v>
       </c>
       <c r="C18" s="37">
@@ -4185,44 +4259,45 @@
         <f t="shared" si="14"/>
         <v>0.66554492853580216</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="176"/>
+      <c r="G18" s="36">
         <f t="shared" si="14"/>
         <v>0.41635660782442618</v>
       </c>
-      <c r="G18" s="37">
+      <c r="H18" s="37">
         <f t="shared" si="14"/>
         <v>0.75108586920817766</v>
       </c>
-      <c r="H18" s="60">
-        <f>H17/G8</f>
-        <v>0.29385904166803933</v>
-      </c>
       <c r="I18" s="60">
         <f>I17/H8</f>
+        <v>0.29385904166803933</v>
+      </c>
+      <c r="J18" s="60">
+        <f>J17/I8</f>
         <v>0.36857590411228142</v>
       </c>
-      <c r="J18" s="60">
-        <f>J17/J8</f>
+      <c r="K18" s="60">
+        <f>K17/K8</f>
         <v>0.34202407409346525</v>
       </c>
-      <c r="K18" s="36">
-        <f t="shared" ref="K18:L18" si="15">K17/K8</f>
+      <c r="L18" s="36">
+        <f t="shared" ref="L18:M18" si="15">L17/L8</f>
         <v>0.4221701058338761</v>
       </c>
-      <c r="L18" s="37">
+      <c r="M18" s="37">
         <f t="shared" si="15"/>
         <v>0.3265661809851878</v>
       </c>
-      <c r="M18" s="36">
-        <f>M17/M8</f>
+      <c r="N18" s="36">
+        <f>N17/N8</f>
         <v>0.50330709801788354</v>
       </c>
-      <c r="N18" s="37">
-        <f>N17/N8</f>
+      <c r="O18" s="37">
+        <f>O17/O8</f>
         <v>0.76770484157726138</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4238,40 +4313,41 @@
       <c r="E19" s="33">
         <v>0.4</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="172"/>
+      <c r="G19" s="32">
         <v>0.5</v>
       </c>
-      <c r="G19" s="33">
+      <c r="H19" s="33">
         <v>0.4</v>
       </c>
-      <c r="H19" s="57">
+      <c r="I19" s="57">
         <v>0.6</v>
       </c>
-      <c r="I19" s="57">
+      <c r="J19" s="57">
         <v>0.8</v>
       </c>
-      <c r="J19" s="57">
+      <c r="K19" s="57">
         <v>0.4</v>
       </c>
-      <c r="K19" s="67">
+      <c r="L19" s="67">
         <v>0.6</v>
       </c>
-      <c r="L19" s="33">
+      <c r="M19" s="33">
         <v>0.5</v>
       </c>
-      <c r="M19" s="32">
+      <c r="N19" s="32">
         <v>0.6</v>
       </c>
-      <c r="N19" s="33">
+      <c r="O19" s="33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="34">
-        <f t="shared" ref="B20:N20" si="16">B19*B18</f>
+        <f t="shared" ref="B20:O20" si="16">B19*B18</f>
         <v>0.19084937657839851</v>
       </c>
       <c r="C20" s="35">
@@ -4286,49 +4362,50 @@
         <f t="shared" si="16"/>
         <v>0.26621797141432085</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="172"/>
+      <c r="G20" s="34">
         <f t="shared" si="16"/>
         <v>0.20817830391221309</v>
       </c>
-      <c r="G20" s="35">
+      <c r="H20" s="35">
         <f t="shared" si="16"/>
         <v>0.3004343476832711</v>
       </c>
-      <c r="H20" s="59">
+      <c r="I20" s="59">
         <f t="shared" si="16"/>
         <v>0.17631542500082359</v>
       </c>
-      <c r="I20" s="59">
+      <c r="J20" s="59">
         <f t="shared" si="16"/>
         <v>0.29486072328982516</v>
       </c>
-      <c r="J20" s="59">
+      <c r="K20" s="59">
         <f t="shared" si="16"/>
         <v>0.1368096296373861</v>
       </c>
-      <c r="K20" s="34">
+      <c r="L20" s="34">
         <f t="shared" si="16"/>
         <v>0.25330206350032564</v>
       </c>
-      <c r="L20" s="35">
+      <c r="M20" s="35">
         <f t="shared" si="16"/>
         <v>0.1632830904925939</v>
       </c>
-      <c r="M20" s="34">
+      <c r="N20" s="34">
         <f t="shared" si="16"/>
         <v>0.3019842588107301</v>
       </c>
-      <c r="N20" s="35">
+      <c r="O20" s="35">
         <f t="shared" si="16"/>
         <v>0.30708193663090455</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="40">
-        <f t="shared" ref="B21:N21" si="17">1-B20</f>
+        <f t="shared" ref="B21:O21" si="17">1-B20</f>
         <v>0.80915062342160149</v>
       </c>
       <c r="C21" s="41">
@@ -4343,64 +4420,68 @@
         <f t="shared" si="17"/>
         <v>0.73378202858567909</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="180">
+        <v>5008</v>
+      </c>
+      <c r="G21" s="40">
         <f t="shared" si="17"/>
         <v>0.79182169608778685</v>
       </c>
-      <c r="G21" s="41">
+      <c r="H21" s="41">
         <f t="shared" si="17"/>
         <v>0.69956565231672885</v>
       </c>
-      <c r="H21" s="61">
+      <c r="I21" s="61">
         <f t="shared" si="17"/>
         <v>0.82368457499917636</v>
       </c>
-      <c r="I21" s="61">
+      <c r="J21" s="61">
         <f t="shared" si="17"/>
         <v>0.70513927671017484</v>
       </c>
-      <c r="J21" s="61">
+      <c r="K21" s="61">
         <f t="shared" si="17"/>
         <v>0.86319037036261392</v>
       </c>
-      <c r="K21" s="40">
+      <c r="L21" s="40">
         <f t="shared" si="17"/>
         <v>0.74669793649967442</v>
       </c>
-      <c r="L21" s="41">
+      <c r="M21" s="41">
         <f t="shared" si="17"/>
         <v>0.83671690950740607</v>
       </c>
-      <c r="M21" s="40">
+      <c r="N21" s="40">
         <f t="shared" si="17"/>
         <v>0.6980157411892699</v>
       </c>
-      <c r="N21" s="41">
+      <c r="O21" s="41">
         <f t="shared" si="17"/>
         <v>0.69291806336909545</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="57"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K22" s="57"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="33"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="42">
-        <f t="shared" ref="B23:L23" si="18">B21</f>
+        <f t="shared" ref="B23:M23" si="18">B21</f>
         <v>0.80915062342160149</v>
       </c>
       <c r="C23" s="43">
@@ -4415,44 +4496,45 @@
         <f t="shared" si="18"/>
         <v>0.73378202858567909</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="176"/>
+      <c r="G23" s="42">
         <f t="shared" si="18"/>
         <v>0.79182169608778685</v>
       </c>
-      <c r="G23" s="43">
+      <c r="H23" s="43">
         <f t="shared" si="18"/>
         <v>0.69956565231672885</v>
       </c>
-      <c r="H23" s="59">
+      <c r="I23" s="59">
         <f t="shared" si="18"/>
         <v>0.82368457499917636</v>
       </c>
-      <c r="I23" s="59">
+      <c r="J23" s="59">
         <f t="shared" si="18"/>
         <v>0.70513927671017484</v>
       </c>
-      <c r="J23" s="59">
+      <c r="K23" s="59">
         <f t="shared" si="18"/>
         <v>0.86319037036261392</v>
       </c>
-      <c r="K23" s="88">
+      <c r="L23" s="83">
         <f t="shared" si="18"/>
         <v>0.74669793649967442</v>
       </c>
-      <c r="L23" s="43">
+      <c r="M23" s="43">
         <f t="shared" si="18"/>
         <v>0.83671690950740607</v>
       </c>
-      <c r="M23" s="88">
-        <f t="shared" ref="M23:N23" si="19">M21</f>
+      <c r="N23" s="83">
+        <f t="shared" ref="N23:O23" si="19">N21</f>
         <v>0.6980157411892699</v>
       </c>
-      <c r="N23" s="43">
+      <c r="O23" s="43">
         <f t="shared" si="19"/>
         <v>0.69291806336909545</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -4468,39 +4550,40 @@
       <c r="E24" s="45">
         <v>3280.26</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="176"/>
+      <c r="G24" s="55">
         <v>169.34</v>
       </c>
-      <c r="G24" s="56">
+      <c r="H24" s="56">
         <v>2652.86</v>
       </c>
-      <c r="H24" s="62">
+      <c r="I24" s="62">
         <v>585.55999999999995</v>
       </c>
-      <c r="I24" s="64">
+      <c r="J24" s="64">
         <v>258.37</v>
       </c>
-      <c r="J24" s="64">
+      <c r="K24" s="64">
         <v>237.04</v>
       </c>
-      <c r="K24" s="104">
+      <c r="L24" s="99">
         <v>1024.1500000000001</v>
       </c>
-      <c r="L24" s="45">
+      <c r="M24" s="45">
         <v>462.85</v>
       </c>
-      <c r="M24" s="104">
+      <c r="N24" s="99">
         <v>116.48</v>
       </c>
-      <c r="N24" s="45">
+      <c r="O24" s="45">
         <v>612.41</v>
       </c>
-      <c r="O24" s="2">
-        <f>SUM(B24:N24)</f>
+      <c r="P24" s="2">
+        <f>SUM(B24:O24)</f>
         <v>10106.689999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -4509,7 +4592,7 @@
         <v>133.22665014636669</v>
       </c>
       <c r="C25" s="47">
-        <f t="shared" ref="C25:N25" si="20">C23*C24</f>
+        <f t="shared" ref="C25:O25" si="20">C23*C24</f>
         <v>200.27679480732019</v>
       </c>
       <c r="D25" s="46">
@@ -4520,57 +4603,58 @@
         <f t="shared" si="20"/>
         <v>2406.9958370884597</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="177"/>
+      <c r="G25" s="46">
         <f t="shared" si="20"/>
         <v>134.08708601550583</v>
       </c>
-      <c r="G25" s="47">
+      <c r="H25" s="47">
         <f t="shared" si="20"/>
         <v>1855.8497364049574</v>
       </c>
-      <c r="H25" s="63">
+      <c r="I25" s="63">
         <f t="shared" si="20"/>
         <v>482.31673973651766</v>
       </c>
-      <c r="I25" s="63">
+      <c r="J25" s="63">
         <f t="shared" si="20"/>
         <v>182.18683492360788</v>
       </c>
-      <c r="J25" s="63">
+      <c r="K25" s="63">
         <f t="shared" si="20"/>
         <v>204.610645390754</v>
       </c>
-      <c r="K25" s="89">
+      <c r="L25" s="84">
         <f t="shared" si="20"/>
         <v>764.73069166614164</v>
       </c>
-      <c r="L25" s="47">
+      <c r="M25" s="47">
         <f t="shared" si="20"/>
         <v>387.27442156550291</v>
       </c>
-      <c r="M25" s="89">
+      <c r="N25" s="84">
         <f t="shared" si="20"/>
         <v>81.304873533726166</v>
       </c>
-      <c r="N25" s="47">
+      <c r="O25" s="47">
         <f t="shared" si="20"/>
         <v>424.3499511878677</v>
       </c>
-      <c r="O25" s="31">
-        <f>SUM(B25:N25)</f>
+      <c r="P25" s="31">
+        <f>SUM(B25:O25)</f>
         <v>7508.2131192132701</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="48">
-        <f>O25/O24</f>
+        <f>P25/P24</f>
         <v>0.74289536131149481</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="18" t="s">
         <v>4</v>
       </c>
@@ -4579,11 +4663,12 @@
         <v>5</v>
       </c>
       <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
@@ -4595,11 +4680,12 @@
         <v>3</v>
       </c>
       <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
@@ -4611,11 +4697,12 @@
         <v>2</v>
       </c>
       <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>12</v>
       </c>
@@ -4627,11 +4714,12 @@
         <v>13</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="178"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>6</v>
       </c>
@@ -4643,23 +4731,25 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>14</v>
       </c>
@@ -4671,11 +4761,12 @@
         <v>1.9</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="F47" s="179"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>15</v>
       </c>
@@ -4687,11 +4778,12 @@
         <v>0.4</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="179"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
@@ -4706,8 +4798,9 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
@@ -4724,8 +4817,9 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>17</v>
       </c>
@@ -4733,34 +4827,35 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="7"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B53">
         <f>1.9*18.4</f>
         <v>34.959999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" t="e">
         <f>100*(0.63^#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" t="e">
         <f>B53/B54</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>0.63</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="e">
         <f>+B56/B58</f>
         <v>#REF!</v>
@@ -4769,13 +4864,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B46:I46"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -4789,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A3:AD51"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4847,13 +4942,13 @@
       <c r="AC3" s="11"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="162"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="166"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
@@ -4880,74 +4975,74 @@
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="108" t="s">
+      <c r="C5" s="168"/>
+      <c r="D5" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="169" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="109" t="s">
+      <c r="F5" s="170"/>
+      <c r="G5" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="149" t="s">
+      <c r="H5" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="150"/>
-      <c r="J5" s="73" t="s">
+      <c r="I5" s="170"/>
+      <c r="J5" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="P5" s="73" t="s">
+      <c r="P5" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="R5" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="S5" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="T5" s="158" t="s">
+      <c r="T5" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="159" t="s">
+      <c r="U5" s="162"/>
+      <c r="V5" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="W5" s="159"/>
-      <c r="X5" s="160" t="s">
+      <c r="W5" s="163"/>
+      <c r="X5" s="164" t="s">
         <v>130</v>
       </c>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="161" t="s">
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="AA5" s="161"/>
-      <c r="AB5" s="160" t="s">
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="AC5" s="160"/>
+      <c r="AC5" s="164"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -5131,32 +5226,32 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="73">
         <f>0.31*B24/1000</f>
         <v>0.1083326</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="73">
         <f>0.31*C24/1000</f>
         <v>1.1941200000000001E-2</v>
       </c>
       <c r="D8" s="30">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="73">
         <f>0.31*E24/1000</f>
         <v>0.10450100000000001</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="73">
         <f>0.31*F24/1000</f>
         <v>7.3005E-2</v>
       </c>
       <c r="G8" s="30">
         <v>25.5</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="73">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="73">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="J8" s="30">
@@ -5168,64 +5263,64 @@
       <c r="L8" s="30">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M8" s="74">
+      <c r="M8" s="71">
         <v>1.4E-2</v>
       </c>
-      <c r="N8" s="76">
+      <c r="N8" s="73">
         <v>1.6E-2</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="74">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="P8" s="77">
+      <c r="P8" s="74">
         <v>1E-3</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="71">
         <v>0.44</v>
       </c>
-      <c r="R8" s="74">
+      <c r="R8" s="71">
         <v>0.14399999999999999</v>
       </c>
-      <c r="S8" s="74">
+      <c r="S8" s="71">
         <v>2.7E-2</v>
       </c>
-      <c r="T8" s="74">
+      <c r="T8" s="71">
         <f>0.31*T24/1000</f>
         <v>0.28476289999999999</v>
       </c>
-      <c r="U8" s="74">
+      <c r="U8" s="71">
         <f t="shared" ref="U8:AC8" si="0">0.31*U24/1000</f>
         <v>4.0300000000000006E-3</v>
       </c>
-      <c r="V8" s="74">
+      <c r="V8" s="71">
         <f t="shared" si="0"/>
         <v>0.16060480000000002</v>
       </c>
-      <c r="W8" s="74">
+      <c r="W8" s="71">
         <f t="shared" si="0"/>
         <v>3.2909599999999997E-2</v>
       </c>
-      <c r="X8" s="74">
+      <c r="X8" s="71">
         <f t="shared" si="0"/>
         <v>0.33291209999999999</v>
       </c>
-      <c r="Y8" s="74">
+      <c r="Y8" s="71">
         <f t="shared" si="0"/>
         <v>6.8200000000000005E-3</v>
       </c>
-      <c r="Z8" s="74">
+      <c r="Z8" s="71">
         <f t="shared" si="0"/>
         <v>0.1664669</v>
       </c>
-      <c r="AA8" s="74">
+      <c r="AA8" s="71">
         <f t="shared" si="0"/>
         <v>2.4623300000000001E-2</v>
       </c>
-      <c r="AB8" s="74">
+      <c r="AB8" s="71">
         <f t="shared" si="0"/>
         <v>0.57201200000000008</v>
       </c>
-      <c r="AC8" s="74">
+      <c r="AC8" s="71">
         <f t="shared" si="0"/>
         <v>3.6508699999999998E-2</v>
       </c>
@@ -5234,10 +5329,10 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="78">
         <v>1.8</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="78">
         <v>1.7</v>
       </c>
       <c r="D9" s="50">
@@ -5501,11 +5596,11 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="79">
         <f t="shared" ref="B12:D12" si="1">B8/B9</f>
         <v>6.0184777777777775E-2</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="79">
         <f t="shared" ref="C12" si="2">C8/C9</f>
         <v>7.024235294117648E-3</v>
       </c>
@@ -6203,15 +6298,15 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="72">
         <f t="shared" ref="B18:D18" si="53">B17/B8</f>
         <v>0.28816736072853194</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="72">
         <f t="shared" ref="C18" si="54">C17/C8</f>
         <v>0.16215142220382114</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="69">
         <f t="shared" si="53"/>
         <v>0.13982483289222208</v>
       </c>
@@ -6243,11 +6338,11 @@
         <f t="shared" si="55"/>
         <v>0.40413481717093513</v>
       </c>
-      <c r="L18" s="75">
+      <c r="L18" s="72">
         <f t="shared" si="55"/>
         <v>0.10491913740633627</v>
       </c>
-      <c r="M18" s="75">
+      <c r="M18" s="72">
         <f t="shared" si="55"/>
         <v>0.10113731201239853</v>
       </c>
@@ -6534,7 +6629,7 @@
         <f t="shared" ref="C21" si="67">1-C20</f>
         <v>0.9027091466777073</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="82">
         <f t="shared" si="66"/>
         <v>0.87415765039700011</v>
       </c>
@@ -6640,8 +6735,8 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="33"/>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
@@ -6673,15 +6768,15 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="86">
+      <c r="B23" s="81">
         <f t="shared" ref="B23:AB23" si="76">B21</f>
         <v>0.82709958356288082</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="81">
         <f t="shared" ref="C23" si="77">C21</f>
         <v>0.9027091466777073</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="83">
         <f t="shared" si="76"/>
         <v>0.87415765039700011</v>
       </c>
@@ -6891,7 +6986,7 @@
         <f>C23*C24</f>
         <v>34.772356330025289</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="84">
         <f>D23*D24</f>
         <v>780.50914130996944</v>
       </c>
@@ -7045,7 +7140,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="105"/>
+      <c r="F44" s="100"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
@@ -7061,10 +7156,10 @@
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
       <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -7075,7 +7170,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="106"/>
+      <c r="F47" s="101"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -7085,7 +7180,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="106"/>
+      <c r="F48" s="101"/>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -7095,7 +7190,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="107"/>
+      <c r="F49" s="102"/>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -7105,7 +7200,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="107"/>
+      <c r="F50" s="102"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -7142,8 +7237,8 @@
   </sheetPr>
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7153,10 +7248,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="158"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -7364,8 +7459,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -7399,11 +7494,11 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="102">
+      <c r="B23" s="97">
         <f>B21*B22</f>
         <v>501.36512012689764</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="97">
         <f>C21*C22</f>
         <v>237.90579746592098</v>
       </c>
@@ -7416,7 +7511,7 @@
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="96">
         <f>D23/D22</f>
         <v>0.72074770166015267</v>
       </c>
@@ -7436,10 +7531,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
-  <dimension ref="A2:S59"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="I1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7464,1495 +7559,1492 @@
     <col min="18" max="18" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="11"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="B2" s="152" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="139" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="136" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="148" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-    </row>
-    <row r="5" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1.64</v>
+      </c>
+      <c r="C5" s="30">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1.87</v>
+      </c>
+      <c r="F5" s="30">
+        <v>3.63</v>
+      </c>
+      <c r="G5" s="30">
+        <v>3.87</v>
+      </c>
+      <c r="H5" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="I5" s="30">
+        <v>6.7</v>
+      </c>
+      <c r="J5" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="L5" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="M5" s="30">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N5" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="O5" s="30">
+        <v>2.54</v>
+      </c>
+      <c r="P5" s="30">
+        <v>0.11</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>33.9</v>
+      </c>
+      <c r="R5" s="30">
+        <v>25.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.78</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="K6" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="73">
+        <v>1E-3</v>
+      </c>
+      <c r="M6" s="74">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N6" s="74">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O6" s="71">
+        <v>0.02</v>
+      </c>
+      <c r="P6" s="71">
+        <v>0.02</v>
+      </c>
+      <c r="Q6" s="71">
+        <v>0.65</v>
+      </c>
+      <c r="R6" s="71">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="22">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1.54</v>
+      </c>
+      <c r="D7" s="50">
         <v>1.64</v>
       </c>
-      <c r="C7" s="30">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="E7" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="57">
+        <v>0.49</v>
+      </c>
+      <c r="C8" s="52">
+        <v>0.35</v>
+      </c>
+      <c r="D8" s="52">
+        <v>0.49</v>
+      </c>
+      <c r="E8" s="57">
         <v>0.3</v>
       </c>
-      <c r="E7" s="30">
-        <v>1.87</v>
-      </c>
-      <c r="F7" s="30">
-        <v>3.63</v>
-      </c>
-      <c r="G7" s="30">
-        <v>3.87</v>
-      </c>
-      <c r="H7" s="30">
-        <v>4.5</v>
-      </c>
-      <c r="I7" s="30">
-        <v>6.7</v>
-      </c>
-      <c r="J7" s="30">
-        <v>4.5</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="L7" s="30">
-        <v>1.7</v>
-      </c>
-      <c r="M7" s="30">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0.13</v>
-      </c>
-      <c r="O7" s="30">
-        <v>2.54</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0.11</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>33.9</v>
-      </c>
-      <c r="R7" s="30">
-        <v>25.11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="22">
-        <v>0.23</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0.78</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="I8" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0.03</v>
-      </c>
-      <c r="K8" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="76">
-        <v>1E-3</v>
-      </c>
-      <c r="M8" s="77">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="N8" s="77">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="O8" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="P8" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="Q8" s="74">
-        <v>0.65</v>
-      </c>
-      <c r="R8" s="74">
-        <v>0.28000000000000003</v>
+      <c r="F8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="57">
+        <v>0.35</v>
+      </c>
+      <c r="K8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="M8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="57">
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.48</v>
-      </c>
-      <c r="C9" s="50">
-        <v>1.54</v>
-      </c>
-      <c r="D9" s="50">
-        <v>1.64</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.64</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.64</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.64</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.64</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.64</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.24</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1.24</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="B9" s="57">
+        <v>1.2</v>
+      </c>
+      <c r="C9" s="52">
+        <v>2.4</v>
+      </c>
+      <c r="D9" s="52">
+        <v>2</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="57">
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="P9" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="R9" s="57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="57">
-        <v>0.49</v>
-      </c>
-      <c r="C10" s="52">
-        <v>0.35</v>
-      </c>
-      <c r="D10" s="52">
-        <v>0.49</v>
-      </c>
-      <c r="E10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="F10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="H10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="J10" s="57">
-        <v>0.35</v>
-      </c>
-      <c r="K10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="L10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="M10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="N10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="O10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="P10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="Q10" s="57">
-        <v>0.3</v>
-      </c>
-      <c r="R10" s="57">
-        <v>0.3</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="59">
+        <f t="shared" ref="B10:D10" si="0">B6/B7</f>
+        <v>9.2741935483870969E-2</v>
+      </c>
+      <c r="C10" s="54">
+        <f t="shared" si="0"/>
+        <v>0.50649350649350655</v>
+      </c>
+      <c r="D10" s="54">
+        <f t="shared" si="0"/>
+        <v>0.51829268292682928</v>
+      </c>
+      <c r="E10" s="59">
+        <f t="shared" ref="E10:R10" si="1">E6/E7</f>
+        <v>1.2195121951219513E-2</v>
+      </c>
+      <c r="F10" s="59">
+        <f t="shared" si="1"/>
+        <v>1.2195121951219513E-2</v>
+      </c>
+      <c r="G10" s="59">
+        <f t="shared" si="1"/>
+        <v>3.0487804878048783E-2</v>
+      </c>
+      <c r="H10" s="59">
+        <f t="shared" si="1"/>
+        <v>3.0487804878048783E-2</v>
+      </c>
+      <c r="I10" s="59">
+        <f t="shared" si="1"/>
+        <v>6.0975609756097567E-2</v>
+      </c>
+      <c r="J10" s="59">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="59">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L10" s="59">
+        <f t="shared" si="1"/>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="M10" s="59">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129032E-4</v>
+      </c>
+      <c r="N10" s="59">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="O10" s="59">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="P10" s="59">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714287E-2</v>
+      </c>
+      <c r="Q10" s="59">
+        <f t="shared" si="1"/>
+        <v>0.29545454545454541</v>
+      </c>
+      <c r="R10" s="59">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="57">
-        <v>1.2</v>
-      </c>
-      <c r="C11" s="52">
-        <v>2.4</v>
-      </c>
-      <c r="D11" s="52">
-        <v>2</v>
-      </c>
-      <c r="E11" s="58">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="57">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="65">
-        <v>0.9</v>
-      </c>
-      <c r="K11" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="57">
-        <v>0.4</v>
-      </c>
-      <c r="M11" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="57">
-        <v>0.9</v>
-      </c>
-      <c r="P11" s="57">
-        <v>0.9</v>
-      </c>
-      <c r="Q11" s="57">
-        <v>0.9</v>
-      </c>
-      <c r="R11" s="57">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="B11" s="59">
+        <f t="shared" ref="B11:F11" si="2">B10/B9</f>
+        <v>7.7284946236559141E-2</v>
+      </c>
+      <c r="C11" s="35">
+        <f t="shared" si="2"/>
+        <v>0.21103896103896108</v>
+      </c>
+      <c r="D11" s="35">
+        <f t="shared" si="2"/>
+        <v>0.25914634146341464</v>
+      </c>
+      <c r="E11" s="59">
+        <f t="shared" si="2"/>
+        <v>2.0325203252032523E-2</v>
+      </c>
+      <c r="F11" s="59">
+        <f t="shared" si="2"/>
+        <v>2.0325203252032523E-2</v>
+      </c>
+      <c r="G11" s="59">
+        <f>G10/G9</f>
+        <v>6.0975609756097567E-2</v>
+      </c>
+      <c r="H11" s="59">
+        <f t="shared" ref="H11" si="3">H10/H9</f>
+        <v>6.0975609756097567E-2</v>
+      </c>
+      <c r="I11" s="59">
+        <f t="shared" ref="I11:R11" si="4">I10/I9</f>
+        <v>0.12195121951219513</v>
+      </c>
+      <c r="J11" s="59">
+        <f>J10/J9</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="K11" s="59">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="L11" s="59">
+        <f t="shared" si="4"/>
+        <v>1.5624999999999999E-3</v>
+      </c>
+      <c r="M11" s="59">
+        <f t="shared" si="4"/>
+        <v>6.4516129032258064E-4</v>
+      </c>
+      <c r="N11" s="59">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="O11" s="59">
+        <f t="shared" si="4"/>
+        <v>1.7921146953405017E-2</v>
+      </c>
+      <c r="P11" s="59">
+        <f t="shared" si="4"/>
+        <v>1.5873015873015876E-2</v>
+      </c>
+      <c r="Q11" s="59">
+        <f t="shared" si="4"/>
+        <v>0.32828282828282823</v>
+      </c>
+      <c r="R11" s="59">
+        <f t="shared" si="4"/>
+        <v>0.22222222222222227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B12" s="59">
-        <f t="shared" ref="B12:D12" si="0">B8/B9</f>
-        <v>9.2741935483870969E-2</v>
-      </c>
-      <c r="C12" s="54">
-        <f t="shared" si="0"/>
-        <v>0.50649350649350655</v>
-      </c>
-      <c r="D12" s="54">
-        <f t="shared" si="0"/>
-        <v>0.51829268292682928</v>
+        <f t="shared" ref="B12:F12" si="5">0.018*B8*B9*(B11^0.5)</f>
+        <v>2.9423700124767754E-3</v>
+      </c>
+      <c r="C12" s="35">
+        <f t="shared" si="5"/>
+        <v>6.9459733266508767E-3</v>
+      </c>
+      <c r="D12" s="35">
+        <f t="shared" si="5"/>
+        <v>8.9798921716596428E-3</v>
       </c>
       <c r="E12" s="59">
-        <f t="shared" ref="E12:R12" si="1">E8/E9</f>
-        <v>1.2195121951219513E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.6191541829488275E-4</v>
       </c>
       <c r="F12" s="59">
-        <f t="shared" si="1"/>
-        <v>1.2195121951219513E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.6191541829488275E-4</v>
       </c>
       <c r="G12" s="59">
-        <f t="shared" si="1"/>
-        <v>3.0487804878048783E-2</v>
+        <f>0.018*G8*G9*(G11^0.5)</f>
+        <v>6.6671747773847296E-4</v>
       </c>
       <c r="H12" s="59">
-        <f t="shared" si="1"/>
-        <v>3.0487804878048783E-2</v>
+        <f t="shared" ref="H12" si="6">0.018*H8*H9*(H11^0.5)</f>
+        <v>6.6671747773847296E-4</v>
       </c>
       <c r="I12" s="59">
-        <f t="shared" si="1"/>
-        <v>6.0975609756097567E-2</v>
+        <f t="shared" ref="I12:R12" si="7">0.018*I8*I9*(I11^0.5)</f>
+        <v>9.4288089928893054E-4</v>
       </c>
       <c r="J12" s="59">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
+        <f>0.018*J8*J9*(J11^0.5)</f>
+        <v>8.4523369549492047E-4</v>
       </c>
       <c r="K12" s="59">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.5459415460183916E-4</v>
       </c>
       <c r="L12" s="59">
-        <f t="shared" si="1"/>
-        <v>6.2500000000000001E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.538149682454624E-5</v>
       </c>
       <c r="M12" s="59">
-        <f t="shared" si="1"/>
-        <v>3.2258064516129032E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.8580068580102857E-5</v>
       </c>
       <c r="N12" s="59">
-        <f t="shared" si="1"/>
-        <v>3.2000000000000003E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.8305197459636984E-5</v>
       </c>
       <c r="O12" s="59">
-        <f t="shared" si="1"/>
-        <v>1.6129032258064516E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.5060765641102405E-4</v>
       </c>
       <c r="P12" s="59">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714287E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.123024462749481E-4</v>
       </c>
       <c r="Q12" s="59">
-        <f t="shared" si="1"/>
-        <v>0.29545454545454541</v>
+        <f t="shared" si="7"/>
+        <v>2.7845841863569309E-3</v>
       </c>
       <c r="R12" s="59">
-        <f t="shared" si="1"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="7"/>
+        <v>2.2910259710444141E-3</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B13" s="59">
-        <f t="shared" ref="B13:F13" si="2">B12/B11</f>
-        <v>7.7284946236559141E-2</v>
+        <f t="shared" ref="B13:F13" si="8">B10^0.25</f>
+        <v>0.55184744836423427</v>
       </c>
       <c r="C13" s="35">
-        <f t="shared" si="2"/>
-        <v>0.21103896103896108</v>
+        <f t="shared" si="8"/>
+        <v>0.84361340191272838</v>
       </c>
       <c r="D13" s="35">
-        <f t="shared" si="2"/>
-        <v>0.25914634146341464</v>
+        <f t="shared" si="8"/>
+        <v>0.84848421929776552</v>
       </c>
       <c r="E13" s="59">
-        <f t="shared" si="2"/>
-        <v>2.0325203252032523E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.33231239229804016</v>
       </c>
       <c r="F13" s="59">
-        <f t="shared" si="2"/>
-        <v>2.0325203252032523E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.33231239229804016</v>
       </c>
       <c r="G13" s="59">
-        <f>G12/G11</f>
-        <v>6.0975609756097567E-2</v>
+        <f>G10^0.25</f>
+        <v>0.41786071117346574</v>
       </c>
       <c r="H13" s="59">
-        <f t="shared" ref="H13" si="3">H12/H11</f>
-        <v>6.0975609756097567E-2</v>
+        <f t="shared" ref="H13:I13" si="9">H10^0.25</f>
+        <v>0.41786071117346574</v>
       </c>
       <c r="I13" s="59">
-        <f t="shared" ref="I13:R13" si="4">I12/I11</f>
-        <v>0.12195121951219513</v>
+        <f t="shared" si="9"/>
+        <v>0.49692293080758249</v>
       </c>
       <c r="J13" s="59">
-        <f>J12/J11</f>
-        <v>2.2222222222222223E-2</v>
+        <f>J10^0.25</f>
+        <v>0.37606030930863937</v>
       </c>
       <c r="K13" s="59">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
+        <f t="shared" ref="K13:R13" si="10">K10^0.25</f>
+        <v>0.5</v>
       </c>
       <c r="L13" s="59">
-        <f t="shared" si="4"/>
-        <v>1.5624999999999999E-3</v>
+        <f t="shared" si="10"/>
+        <v>0.15811388300841897</v>
       </c>
       <c r="M13" s="59">
-        <f t="shared" si="4"/>
-        <v>6.4516129032258064E-4</v>
+        <f t="shared" si="10"/>
+        <v>0.13401690267528754</v>
       </c>
       <c r="N13" s="59">
-        <f t="shared" si="4"/>
-        <v>6.4000000000000005E-4</v>
+        <f t="shared" si="10"/>
+        <v>0.13374806099528441</v>
       </c>
       <c r="O13" s="59">
-        <f t="shared" si="4"/>
-        <v>1.7921146953405017E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.35637077180962878</v>
       </c>
       <c r="P13" s="59">
-        <f t="shared" si="4"/>
-        <v>1.5873015873015876E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.34572078464194106</v>
       </c>
       <c r="Q13" s="59">
-        <f t="shared" si="4"/>
-        <v>0.32828282828282823</v>
+        <f t="shared" si="10"/>
+        <v>0.73726339018332454</v>
       </c>
       <c r="R13" s="59">
-        <f t="shared" si="4"/>
-        <v>0.22222222222222227</v>
+        <f t="shared" si="10"/>
+        <v>0.66874030497642201</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B14" s="59">
-        <f t="shared" ref="B14:F14" si="5">0.018*B10*B11*(B13^0.5)</f>
-        <v>2.9423700124767754E-3</v>
+        <f t="shared" ref="B14:F14" si="11">B12/B13</f>
+        <v>5.3318539773961797E-3</v>
       </c>
       <c r="C14" s="35">
-        <f t="shared" si="5"/>
-        <v>6.9459733266508767E-3</v>
+        <f t="shared" si="11"/>
+        <v>8.2335976537383608E-3</v>
       </c>
       <c r="D14" s="35">
-        <f t="shared" si="5"/>
-        <v>8.9798921716596428E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0583452193243744E-2</v>
       </c>
       <c r="E14" s="59">
-        <f t="shared" si="5"/>
-        <v>4.6191541829488275E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.3900035899973475E-3</v>
       </c>
       <c r="F14" s="59">
-        <f t="shared" si="5"/>
-        <v>4.6191541829488275E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.3900035899973475E-3</v>
       </c>
       <c r="G14" s="59">
-        <f>0.018*G10*G11*(G13^0.5)</f>
-        <v>6.6671747773847296E-4</v>
+        <f>G12/G13</f>
+        <v>1.5955495692958311E-3</v>
       </c>
       <c r="H14" s="59">
-        <f t="shared" ref="H14" si="6">0.018*H10*H11*(H13^0.5)</f>
-        <v>6.6671747773847296E-4</v>
+        <f t="shared" ref="H14" si="12">H12/H13</f>
+        <v>1.5955495692958311E-3</v>
       </c>
       <c r="I14" s="59">
-        <f t="shared" ref="I14:R14" si="7">0.018*I10*I11*(I13^0.5)</f>
-        <v>9.4288089928893054E-4</v>
+        <f t="shared" ref="I14:R14" si="13">I12/I13</f>
+        <v>1.8974389001461295E-3</v>
       </c>
       <c r="J14" s="59">
-        <f>0.018*J10*J11*(J13^0.5)</f>
-        <v>8.4523369549492047E-4</v>
+        <f>J12/J13</f>
+        <v>2.2476014473551426E-3</v>
       </c>
       <c r="K14" s="59">
-        <f t="shared" si="7"/>
-        <v>9.5459415460183916E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.9091883092036783E-3</v>
       </c>
       <c r="L14" s="59">
-        <f t="shared" si="7"/>
-        <v>8.538149682454624E-5</v>
+        <f t="shared" si="13"/>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="M14" s="59">
-        <f t="shared" si="7"/>
-        <v>6.8580068580102857E-5</v>
+        <f t="shared" si="13"/>
+        <v>5.1172700764669211E-4</v>
       </c>
       <c r="N14" s="59">
-        <f t="shared" si="7"/>
-        <v>6.8305197459636984E-5</v>
+        <f t="shared" si="13"/>
+        <v>5.1070046886171486E-4</v>
       </c>
       <c r="O14" s="59">
-        <f t="shared" si="7"/>
-        <v>6.5060765641102405E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.8256481952974946E-3</v>
       </c>
       <c r="P14" s="59">
-        <f t="shared" si="7"/>
-        <v>6.123024462749481E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.7710894845651311E-3</v>
       </c>
       <c r="Q14" s="59">
-        <f t="shared" si="7"/>
-        <v>2.7845841863569309E-3</v>
+        <f t="shared" si="13"/>
+        <v>3.7769191084675029E-3</v>
       </c>
       <c r="R14" s="59">
-        <f t="shared" si="7"/>
-        <v>2.2910259710444141E-3</v>
+        <f t="shared" si="13"/>
+        <v>3.4258828935474278E-3</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="59">
-        <f t="shared" ref="B15:F15" si="8">B12^0.25</f>
-        <v>0.55184744836423427</v>
+        <f t="shared" ref="B15:D15" si="14">B14*B5</f>
+        <v>8.7442405229297346E-3</v>
       </c>
       <c r="C15" s="35">
-        <f t="shared" si="8"/>
-        <v>0.84361340191272838</v>
+        <f t="shared" si="14"/>
+        <v>1.7949242885149628E-2</v>
       </c>
       <c r="D15" s="35">
-        <f t="shared" si="8"/>
-        <v>0.84848421929776552</v>
+        <f t="shared" si="14"/>
+        <v>3.1750356579731231E-3</v>
       </c>
       <c r="E15" s="59">
-        <f t="shared" si="8"/>
-        <v>0.33231239229804016</v>
+        <f t="shared" ref="E15:R15" si="15">E14*E5</f>
+        <v>2.5993067132950402E-3</v>
       </c>
       <c r="F15" s="59">
-        <f t="shared" si="8"/>
-        <v>0.33231239229804016</v>
+        <f t="shared" si="15"/>
+        <v>5.0457130316903711E-3</v>
       </c>
       <c r="G15" s="59">
-        <f>G12^0.25</f>
-        <v>0.41786071117346574</v>
+        <f t="shared" si="15"/>
+        <v>6.1747768331748666E-3</v>
       </c>
       <c r="H15" s="59">
-        <f t="shared" ref="H15:I15" si="9">H12^0.25</f>
-        <v>0.41786071117346574</v>
+        <f t="shared" si="15"/>
+        <v>7.1799730618312399E-3</v>
       </c>
       <c r="I15" s="59">
-        <f t="shared" si="9"/>
-        <v>0.49692293080758249</v>
+        <f t="shared" si="15"/>
+        <v>1.2712840630979067E-2</v>
       </c>
       <c r="J15" s="59">
-        <f>J12^0.25</f>
-        <v>0.37606030930863937</v>
+        <f t="shared" si="15"/>
+        <v>1.0114206513098141E-2</v>
       </c>
       <c r="K15" s="59">
-        <f t="shared" ref="K15:R15" si="10">K12^0.25</f>
-        <v>0.5</v>
+        <f t="shared" si="15"/>
+        <v>1.145512985522207E-4</v>
       </c>
       <c r="L15" s="59">
-        <f t="shared" si="10"/>
-        <v>0.15811388300841897</v>
+        <f t="shared" si="15"/>
+        <v>9.1799999999999998E-4</v>
       </c>
       <c r="M15" s="59">
-        <f t="shared" si="10"/>
-        <v>0.13401690267528754</v>
+        <f t="shared" si="15"/>
+        <v>6.140724091760305E-6</v>
       </c>
       <c r="N15" s="59">
-        <f t="shared" si="10"/>
-        <v>0.13374806099528441</v>
+        <f t="shared" si="15"/>
+        <v>6.6391060952022938E-5</v>
       </c>
       <c r="O15" s="59">
-        <f t="shared" si="10"/>
-        <v>0.35637077180962878</v>
+        <f t="shared" si="15"/>
+        <v>4.6371464160556361E-3</v>
       </c>
       <c r="P15" s="59">
-        <f t="shared" si="10"/>
-        <v>0.34572078464194106</v>
+        <f t="shared" si="15"/>
+        <v>1.9481984330216442E-4</v>
       </c>
       <c r="Q15" s="59">
-        <f t="shared" si="10"/>
-        <v>0.73726339018332454</v>
+        <f t="shared" si="15"/>
+        <v>0.12803755777704834</v>
       </c>
       <c r="R15" s="59">
-        <f t="shared" si="10"/>
-        <v>0.66874030497642201</v>
+        <f t="shared" si="15"/>
+        <v>8.6023919456975906E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="59">
-        <f t="shared" ref="B16:F16" si="11">B14/B15</f>
-        <v>5.3318539773961797E-3</v>
-      </c>
-      <c r="C16" s="35">
-        <f t="shared" si="11"/>
-        <v>8.2335976537383608E-3</v>
-      </c>
-      <c r="D16" s="35">
-        <f t="shared" si="11"/>
-        <v>1.0583452193243744E-2</v>
-      </c>
-      <c r="E16" s="59">
-        <f t="shared" si="11"/>
-        <v>1.3900035899973475E-3</v>
-      </c>
-      <c r="F16" s="59">
-        <f t="shared" si="11"/>
-        <v>1.3900035899973475E-3</v>
-      </c>
-      <c r="G16" s="59">
-        <f>G14/G15</f>
-        <v>1.5955495692958311E-3</v>
-      </c>
-      <c r="H16" s="59">
-        <f t="shared" ref="H16" si="12">H14/H15</f>
-        <v>1.5955495692958311E-3</v>
-      </c>
-      <c r="I16" s="59">
-        <f t="shared" ref="I16:R16" si="13">I14/I15</f>
-        <v>1.8974389001461295E-3</v>
-      </c>
-      <c r="J16" s="59">
-        <f>J14/J15</f>
-        <v>2.2476014473551426E-3</v>
-      </c>
-      <c r="K16" s="59">
-        <f t="shared" si="13"/>
-        <v>1.9091883092036783E-3</v>
-      </c>
-      <c r="L16" s="59">
-        <f t="shared" si="13"/>
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="M16" s="59">
-        <f t="shared" si="13"/>
-        <v>5.1172700764669211E-4</v>
-      </c>
-      <c r="N16" s="59">
-        <f t="shared" si="13"/>
-        <v>5.1070046886171486E-4</v>
-      </c>
-      <c r="O16" s="59">
-        <f t="shared" si="13"/>
-        <v>1.8256481952974946E-3</v>
-      </c>
-      <c r="P16" s="59">
-        <f t="shared" si="13"/>
-        <v>1.7710894845651311E-3</v>
-      </c>
-      <c r="Q16" s="59">
-        <f t="shared" si="13"/>
-        <v>3.7769191084675029E-3</v>
-      </c>
-      <c r="R16" s="59">
-        <f t="shared" si="13"/>
-        <v>3.4258828935474278E-3</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="60">
+        <f t="shared" ref="B16:D16" si="16">B15/B6</f>
+        <v>3.8018437056216235E-2</v>
+      </c>
+      <c r="C16" s="37">
+        <f t="shared" si="16"/>
+        <v>2.3011849852755933E-2</v>
+      </c>
+      <c r="D16" s="69">
+        <f t="shared" si="16"/>
+        <v>3.7353360682036742E-3</v>
+      </c>
+      <c r="E16" s="60">
+        <f t="shared" ref="E16:R16" si="17">E15/E6</f>
+        <v>0.12996533566475202</v>
+      </c>
+      <c r="F16" s="60">
+        <f t="shared" si="17"/>
+        <v>0.25228565158451854</v>
+      </c>
+      <c r="G16" s="60">
+        <f t="shared" si="17"/>
+        <v>0.12349553666349733</v>
+      </c>
+      <c r="H16" s="60">
+        <f t="shared" si="17"/>
+        <v>0.14359946123662479</v>
+      </c>
+      <c r="I16" s="60">
+        <f t="shared" si="17"/>
+        <v>0.12712840630979066</v>
+      </c>
+      <c r="J16" s="72">
+        <f t="shared" si="17"/>
+        <v>0.33714021710327136</v>
+      </c>
+      <c r="K16" s="72">
+        <f t="shared" si="17"/>
+        <v>1.145512985522207E-3</v>
+      </c>
+      <c r="L16" s="60">
+        <f t="shared" si="17"/>
+        <v>0.91799999999999993</v>
+      </c>
+      <c r="M16" s="60">
+        <f t="shared" si="17"/>
+        <v>1.5351810229400761E-2</v>
+      </c>
+      <c r="N16" s="60">
+        <f t="shared" si="17"/>
+        <v>0.16597765238005735</v>
+      </c>
+      <c r="O16" s="60">
+        <f t="shared" si="17"/>
+        <v>0.23185732080278179</v>
+      </c>
+      <c r="P16" s="60">
+        <f t="shared" si="17"/>
+        <v>9.7409921651082209E-3</v>
+      </c>
+      <c r="Q16" s="60">
+        <f t="shared" si="17"/>
+        <v>0.19698085811853591</v>
+      </c>
+      <c r="R16" s="60">
+        <f t="shared" si="17"/>
+        <v>0.3072282837749139</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="59">
-        <f t="shared" ref="B17:D17" si="14">B16*B7</f>
-        <v>8.7442405229297346E-3</v>
-      </c>
-      <c r="C17" s="35">
-        <f t="shared" si="14"/>
-        <v>1.7949242885149628E-2</v>
-      </c>
-      <c r="D17" s="35">
-        <f t="shared" si="14"/>
-        <v>3.1750356579731231E-3</v>
-      </c>
-      <c r="E17" s="59">
-        <f t="shared" ref="E17:R17" si="15">E16*E7</f>
-        <v>2.5993067132950402E-3</v>
-      </c>
-      <c r="F17" s="59">
-        <f t="shared" si="15"/>
-        <v>5.0457130316903711E-3</v>
-      </c>
-      <c r="G17" s="59">
-        <f t="shared" si="15"/>
-        <v>6.1747768331748666E-3</v>
-      </c>
-      <c r="H17" s="59">
-        <f t="shared" si="15"/>
-        <v>7.1799730618312399E-3</v>
-      </c>
-      <c r="I17" s="59">
-        <f t="shared" si="15"/>
-        <v>1.2712840630979067E-2</v>
-      </c>
-      <c r="J17" s="59">
-        <f t="shared" si="15"/>
-        <v>1.0114206513098141E-2</v>
-      </c>
-      <c r="K17" s="59">
-        <f t="shared" si="15"/>
-        <v>1.145512985522207E-4</v>
-      </c>
-      <c r="L17" s="59">
-        <f t="shared" si="15"/>
-        <v>9.1799999999999998E-4</v>
-      </c>
-      <c r="M17" s="59">
-        <f t="shared" si="15"/>
-        <v>6.140724091760305E-6</v>
-      </c>
-      <c r="N17" s="59">
-        <f t="shared" si="15"/>
-        <v>6.6391060952022938E-5</v>
-      </c>
-      <c r="O17" s="59">
-        <f t="shared" si="15"/>
-        <v>4.6371464160556361E-3</v>
-      </c>
-      <c r="P17" s="59">
-        <f t="shared" si="15"/>
-        <v>1.9481984330216442E-4</v>
-      </c>
-      <c r="Q17" s="59">
-        <f t="shared" si="15"/>
-        <v>0.12803755777704834</v>
-      </c>
-      <c r="R17" s="59">
-        <f t="shared" si="15"/>
-        <v>8.6023919456975906E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="57">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="57">
+        <v>0.4</v>
+      </c>
+      <c r="K17" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="L17" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="57">
+        <v>0.4</v>
+      </c>
+      <c r="N17" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="O17" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="R17" s="57">
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="60">
-        <f t="shared" ref="B18:D18" si="16">B17/B8</f>
-        <v>3.8018437056216235E-2</v>
-      </c>
-      <c r="C18" s="37">
-        <f t="shared" si="16"/>
-        <v>2.3011849852755933E-2</v>
-      </c>
-      <c r="D18" s="70">
-        <f t="shared" si="16"/>
-        <v>3.7353360682036742E-3</v>
-      </c>
-      <c r="E18" s="60">
-        <f t="shared" ref="E18:R18" si="17">E17/E8</f>
-        <v>0.12996533566475202</v>
-      </c>
-      <c r="F18" s="60">
-        <f t="shared" si="17"/>
-        <v>0.25228565158451854</v>
-      </c>
-      <c r="G18" s="60">
-        <f t="shared" si="17"/>
-        <v>0.12349553666349733</v>
-      </c>
-      <c r="H18" s="60">
-        <f t="shared" si="17"/>
-        <v>0.14359946123662479</v>
-      </c>
-      <c r="I18" s="60">
-        <f t="shared" si="17"/>
-        <v>0.12712840630979066</v>
-      </c>
-      <c r="J18" s="75">
-        <f t="shared" si="17"/>
-        <v>0.33714021710327136</v>
-      </c>
-      <c r="K18" s="75">
-        <f t="shared" si="17"/>
-        <v>1.145512985522207E-3</v>
-      </c>
-      <c r="L18" s="60">
-        <f t="shared" si="17"/>
-        <v>0.91799999999999993</v>
-      </c>
-      <c r="M18" s="60">
-        <f t="shared" si="17"/>
-        <v>1.5351810229400761E-2</v>
-      </c>
-      <c r="N18" s="60">
-        <f t="shared" si="17"/>
-        <v>0.16597765238005735</v>
-      </c>
-      <c r="O18" s="60">
-        <f t="shared" si="17"/>
-        <v>0.23185732080278179</v>
-      </c>
-      <c r="P18" s="60">
-        <f t="shared" si="17"/>
-        <v>9.7409921651082209E-3</v>
-      </c>
-      <c r="Q18" s="60">
-        <f t="shared" si="17"/>
-        <v>0.19698085811853591</v>
-      </c>
-      <c r="R18" s="60">
-        <f t="shared" si="17"/>
-        <v>0.3072282837749139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="65">
-        <v>0.8</v>
-      </c>
-      <c r="C19" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="D19" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="57">
-        <v>0.6</v>
-      </c>
-      <c r="F19" s="57">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="57">
-        <v>0.4</v>
-      </c>
-      <c r="H19" s="57">
-        <v>0.6</v>
-      </c>
-      <c r="I19" s="57">
-        <v>0.8</v>
-      </c>
-      <c r="J19" s="57">
-        <v>0.4</v>
-      </c>
-      <c r="K19" s="57">
-        <v>0.8</v>
-      </c>
-      <c r="L19" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="M19" s="57">
-        <v>0.4</v>
-      </c>
-      <c r="N19" s="57">
-        <v>0.8</v>
-      </c>
-      <c r="O19" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="P19" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="Q19" s="57">
-        <v>0.8</v>
-      </c>
-      <c r="R19" s="57">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="59">
-        <f t="shared" ref="B20:G20" si="18">B19*B18</f>
+      <c r="B18" s="59">
+        <f t="shared" ref="B18:G18" si="18">B17*B16</f>
         <v>3.041474964497299E-2</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C18" s="35">
         <f t="shared" si="18"/>
         <v>2.0710664867480341E-2</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D18" s="35">
         <f t="shared" si="18"/>
         <v>3.3618024613833067E-3</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E18" s="59">
         <f t="shared" si="18"/>
         <v>7.7979201398851214E-2</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F18" s="59">
         <f t="shared" si="18"/>
         <v>0.20182852126761486</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G18" s="59">
         <f t="shared" si="18"/>
         <v>4.9398214665398933E-2</v>
       </c>
-      <c r="H20" s="59">
-        <f t="shared" ref="H20" si="19">H19*H18</f>
+      <c r="H18" s="59">
+        <f t="shared" ref="H18" si="19">H17*H16</f>
         <v>8.6159676741974875E-2</v>
       </c>
-      <c r="I20" s="59">
-        <f t="shared" ref="I20:R20" si="20">I19*I18</f>
+      <c r="I18" s="59">
+        <f t="shared" ref="I18:R18" si="20">I17*I16</f>
         <v>0.10170272504783254</v>
       </c>
-      <c r="J20" s="59">
-        <f t="shared" ref="J20" si="21">J19*J18</f>
+      <c r="J18" s="59">
+        <f t="shared" ref="J18" si="21">J17*J16</f>
         <v>0.13485608684130854</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K18" s="59">
         <f t="shared" si="20"/>
         <v>9.1641038841776571E-4</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L18" s="59">
         <f t="shared" si="20"/>
         <v>0.45899999999999996</v>
       </c>
-      <c r="M20" s="59">
+      <c r="M18" s="59">
         <f t="shared" si="20"/>
         <v>6.1407240917603044E-3</v>
       </c>
-      <c r="N20" s="59">
+      <c r="N18" s="59">
         <f t="shared" si="20"/>
         <v>0.1327821219040459</v>
       </c>
-      <c r="O20" s="59">
+      <c r="O18" s="59">
         <f t="shared" si="20"/>
         <v>0.1159286604013909</v>
       </c>
-      <c r="P20" s="59">
+      <c r="P18" s="59">
         <f t="shared" si="20"/>
         <v>4.8704960825541104E-3</v>
       </c>
-      <c r="Q20" s="59">
+      <c r="Q18" s="59">
         <f t="shared" si="20"/>
         <v>0.15758468649482874</v>
       </c>
-      <c r="R20" s="59">
+      <c r="R18" s="59">
         <f t="shared" si="20"/>
         <v>0.24578262701993114</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="61">
-        <f t="shared" ref="B21:G21" si="22">1-B20</f>
+      <c r="B19" s="61">
+        <f t="shared" ref="B19:G19" si="22">1-B18</f>
         <v>0.96958525035502696</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C19" s="41">
         <f t="shared" si="22"/>
         <v>0.9792893351325197</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D19" s="70">
         <f t="shared" si="22"/>
         <v>0.99663819753861671</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E19" s="61">
         <f t="shared" si="22"/>
         <v>0.92202079860114883</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F19" s="61">
         <f t="shared" si="22"/>
         <v>0.79817147873238514</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G19" s="61">
         <f t="shared" si="22"/>
         <v>0.95060178533460105</v>
       </c>
-      <c r="H21" s="61">
-        <f t="shared" ref="H21" si="23">1-H20</f>
+      <c r="H19" s="61">
+        <f t="shared" ref="H19" si="23">1-H18</f>
         <v>0.91384032325802511</v>
       </c>
-      <c r="I21" s="61">
-        <f t="shared" ref="I21:R21" si="24">1-I20</f>
+      <c r="I19" s="61">
+        <f t="shared" ref="I19:R19" si="24">1-I18</f>
         <v>0.89829727495216749</v>
       </c>
-      <c r="J21" s="61">
-        <f t="shared" ref="J21" si="25">1-J20</f>
+      <c r="J19" s="61">
+        <f t="shared" ref="J19" si="25">1-J18</f>
         <v>0.86514391315869144</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K19" s="61">
         <f t="shared" si="24"/>
         <v>0.99908358961158228</v>
       </c>
-      <c r="L21" s="61">
+      <c r="L19" s="61">
         <f t="shared" si="24"/>
         <v>0.54100000000000004</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M19" s="61">
         <f t="shared" si="24"/>
         <v>0.99385927590823975</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N19" s="61">
         <f t="shared" si="24"/>
         <v>0.86721787809595408</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O19" s="61">
         <f t="shared" si="24"/>
         <v>0.88407133959860906</v>
       </c>
-      <c r="P21" s="61">
+      <c r="P19" s="61">
         <f t="shared" si="24"/>
         <v>0.99512950391744592</v>
       </c>
-      <c r="Q21" s="61">
+      <c r="Q19" s="61">
         <f t="shared" si="24"/>
         <v>0.84241531350517129</v>
       </c>
-      <c r="R21" s="61">
+      <c r="R19" s="61">
         <f t="shared" si="24"/>
         <v>0.75421737298006886</v>
       </c>
     </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="57"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="75">
+        <f t="shared" ref="B21:R21" si="26">B19</f>
+        <v>0.96958525035502696</v>
+      </c>
+      <c r="C21" s="42">
+        <f t="shared" si="26"/>
+        <v>0.9792893351325197</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" si="26"/>
+        <v>0.99663819753861671</v>
+      </c>
+      <c r="E21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.92202079860114883</v>
+      </c>
+      <c r="F21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.79817147873238514</v>
+      </c>
+      <c r="G21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.95060178533460105</v>
+      </c>
+      <c r="H21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.91384032325802511</v>
+      </c>
+      <c r="I21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.89829727495216749</v>
+      </c>
+      <c r="J21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.86514391315869144</v>
+      </c>
+      <c r="K21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.99908358961158228</v>
+      </c>
+      <c r="L21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="M21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.99385927590823975</v>
+      </c>
+      <c r="N21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.86721787809595408</v>
+      </c>
+      <c r="O21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.88407133959860906</v>
+      </c>
+      <c r="P21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.99512950391744592</v>
+      </c>
+      <c r="Q21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.84241531350517129</v>
+      </c>
+      <c r="R21" s="59">
+        <f t="shared" si="26"/>
+        <v>0.75421737298006886</v>
+      </c>
+    </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="57"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="76">
+        <v>338.42</v>
+      </c>
+      <c r="C22" s="44">
+        <v>1127.46</v>
+      </c>
+      <c r="D22" s="55">
+        <v>27.1</v>
+      </c>
+      <c r="E22" s="62">
+        <v>32.07</v>
+      </c>
+      <c r="F22" s="64">
+        <v>32.04</v>
+      </c>
+      <c r="G22" s="64">
+        <v>77.45</v>
+      </c>
+      <c r="H22" s="62">
+        <v>74.56</v>
+      </c>
+      <c r="I22" s="64">
+        <v>156.94999999999999</v>
+      </c>
+      <c r="J22" s="64">
+        <v>38.31</v>
+      </c>
+      <c r="K22" s="64">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="L22" s="64">
+        <v>4.16</v>
+      </c>
+      <c r="M22" s="64">
+        <v>39.15</v>
+      </c>
+      <c r="N22" s="64">
+        <v>0.68</v>
+      </c>
+      <c r="O22" s="64">
+        <v>25.31</v>
+      </c>
+      <c r="P22" s="64">
+        <v>38.32</v>
+      </c>
+      <c r="Q22" s="64">
+        <v>928.5</v>
+      </c>
+      <c r="R22" s="64">
+        <v>413.47</v>
+      </c>
+      <c r="S22" s="2">
+        <f>SUM(B22:G22)</f>
+        <v>1634.54</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="78">
-        <f t="shared" ref="B23:R23" si="26">B21</f>
-        <v>0.96958525035502696</v>
-      </c>
-      <c r="C23" s="42">
-        <f t="shared" si="26"/>
-        <v>0.9792893351325197</v>
-      </c>
-      <c r="D23" s="42">
-        <f t="shared" si="26"/>
-        <v>0.99663819753861671</v>
-      </c>
-      <c r="E23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.92202079860114883</v>
-      </c>
-      <c r="F23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.79817147873238514</v>
-      </c>
-      <c r="G23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.95060178533460105</v>
-      </c>
-      <c r="H23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.91384032325802511</v>
-      </c>
-      <c r="I23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.89829727495216749</v>
-      </c>
-      <c r="J23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.86514391315869144</v>
-      </c>
-      <c r="K23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.99908358961158228</v>
-      </c>
-      <c r="L23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="M23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.99385927590823975</v>
-      </c>
-      <c r="N23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.86721787809595408</v>
-      </c>
-      <c r="O23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.88407133959860906</v>
-      </c>
-      <c r="P23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.99512950391744592</v>
-      </c>
-      <c r="Q23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.84241531350517129</v>
-      </c>
-      <c r="R23" s="59">
-        <f t="shared" si="26"/>
-        <v>0.75421737298006886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="79">
-        <v>338.42</v>
-      </c>
-      <c r="C24" s="44">
-        <v>1127.46</v>
-      </c>
-      <c r="D24" s="55">
-        <v>27.1</v>
-      </c>
-      <c r="E24" s="62">
-        <v>32.07</v>
-      </c>
-      <c r="F24" s="64">
-        <v>32.04</v>
-      </c>
-      <c r="G24" s="64">
-        <v>77.45</v>
-      </c>
-      <c r="H24" s="62">
-        <v>74.56</v>
-      </c>
-      <c r="I24" s="64">
-        <v>156.94999999999999</v>
-      </c>
-      <c r="J24" s="64">
-        <v>38.31</v>
-      </c>
-      <c r="K24" s="64">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="L24" s="64">
-        <v>4.16</v>
-      </c>
-      <c r="M24" s="64">
-        <v>39.15</v>
-      </c>
-      <c r="N24" s="64">
-        <v>0.68</v>
-      </c>
-      <c r="O24" s="64">
-        <v>25.31</v>
-      </c>
-      <c r="P24" s="64">
-        <v>38.32</v>
-      </c>
-      <c r="Q24" s="64">
-        <v>928.5</v>
-      </c>
-      <c r="R24" s="64">
-        <v>413.47</v>
-      </c>
-      <c r="S24" s="2">
-        <f>SUM(B24:G24)</f>
-        <v>1634.54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="80">
-        <f>B23*B24</f>
+      <c r="B23" s="77">
+        <f>B21*B22</f>
         <v>328.12704042514827</v>
       </c>
-      <c r="C25" s="46">
-        <f>C23*C24</f>
+      <c r="C23" s="46">
+        <f>C21*C22</f>
         <v>1104.1095537885108</v>
       </c>
-      <c r="D25" s="46">
-        <f>D23*D24</f>
+      <c r="D23" s="46">
+        <f>D21*D22</f>
         <v>27.008895153296514</v>
       </c>
-      <c r="E25" s="63">
-        <f t="shared" ref="E25:G25" si="27">E23*E24</f>
+      <c r="E23" s="63">
+        <f t="shared" ref="E23:G23" si="27">E21*E22</f>
         <v>29.569207011138843</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F23" s="63">
         <f t="shared" si="27"/>
         <v>25.573414178585619</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G23" s="63">
         <f t="shared" si="27"/>
         <v>73.624108274164854</v>
       </c>
-      <c r="H25" s="63">
-        <f t="shared" ref="H25" si="28">H23*H24</f>
+      <c r="H23" s="63">
+        <f t="shared" ref="H23" si="28">H21*H22</f>
         <v>68.13593450211836</v>
       </c>
-      <c r="I25" s="63">
-        <f t="shared" ref="I25:R25" si="29">I23*I24</f>
+      <c r="I23" s="63">
+        <f t="shared" ref="I23:R23" si="29">I21*I22</f>
         <v>140.98775730374268</v>
       </c>
-      <c r="J25" s="63">
-        <f t="shared" ref="J25" si="30">J23*J24</f>
+      <c r="J23" s="63">
+        <f t="shared" ref="J23" si="30">J21*J22</f>
         <v>33.143663313109471</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K23" s="63">
         <f t="shared" si="29"/>
         <v>8.7120089014129984</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L23" s="63">
         <f t="shared" si="29"/>
         <v>2.2505600000000001</v>
       </c>
-      <c r="M25" s="63">
+      <c r="M23" s="63">
         <f t="shared" si="29"/>
         <v>38.909590651807584</v>
       </c>
-      <c r="N25" s="63">
+      <c r="N23" s="63">
         <f t="shared" si="29"/>
         <v>0.58970815710524882</v>
       </c>
-      <c r="O25" s="63">
+      <c r="O23" s="63">
         <f t="shared" si="29"/>
         <v>22.375845605240794</v>
       </c>
-      <c r="P25" s="63">
+      <c r="P23" s="63">
         <f t="shared" si="29"/>
         <v>38.133362590116526</v>
       </c>
-      <c r="Q25" s="63">
+      <c r="Q23" s="63">
         <f t="shared" si="29"/>
         <v>782.18261858955157</v>
       </c>
-      <c r="R25" s="63">
+      <c r="R23" s="63">
         <f t="shared" si="29"/>
         <v>311.84625720606908</v>
       </c>
-      <c r="S25" s="31">
-        <f>SUM(B25:G25)</f>
+      <c r="S23" s="31">
+        <f>SUM(B23:G23)</f>
         <v>1588.0122188308446</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="48">
-        <f>S25/S24</f>
+      <c r="B24" s="48">
+        <f>S23/S22</f>
         <v>0.97153463288193909</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="A42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="10"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -8966,7 +9058,7 @@
   </sheetPr>
   <dimension ref="A3:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -8978,10 +9070,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="150"/>
+      <c r="C3" s="154"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -9023,7 +9115,7 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="87">
         <v>0.3</v>
       </c>
       <c r="C7" s="20">
@@ -9192,18 +9284,18 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="95">
+      <c r="B22" s="90">
         <f>B20</f>
         <v>0.92883625480344645</v>
       </c>
-      <c r="C22" s="95">
+      <c r="C22" s="90">
         <f>C20</f>
         <v>0.88956140393816385</v>
       </c>
@@ -9212,13 +9304,13 @@
       <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="90">
         <v>438.98</v>
       </c>
-      <c r="C23" s="95">
+      <c r="C23" s="90">
         <v>216.22</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="89">
         <v>655.20000000000005</v>
       </c>
     </row>
@@ -9226,15 +9318,15 @@
       <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="96">
+      <c r="B24" s="91">
         <f>B22*B23</f>
         <v>407.74053913361695</v>
       </c>
-      <c r="C24" s="96">
+      <c r="C24" s="91">
         <f>C22*C23</f>
         <v>192.3409667595098</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="89">
         <f>SUM(B24:C24)</f>
         <v>600.08150589312675</v>
       </c>
@@ -9264,7 +9356,7 @@
   </sheetPr>
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -9302,7 +9394,7 @@
       <c r="B5" s="21">
         <v>20.98</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -9411,7 +9503,7 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="93">
+      <c r="B18" s="88">
         <f t="shared" ref="B18" si="4">B17*B16</f>
         <v>9.3511153545261932E-2</v>
       </c>
@@ -9420,13 +9512,13 @@
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="97">
+      <c r="B19" s="92">
         <f t="shared" ref="B19" si="5">1-B18</f>
         <v>0.90648884645473804</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
+      <c r="B20" s="80"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -9458,7 +9550,7 @@
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="123">
+      <c r="B24" s="115">
         <f>B23/B22</f>
         <v>0.90648884645473804</v>
       </c>
@@ -9476,8 +9568,8 @@
   </sheetPr>
   <dimension ref="A3:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9507,11 +9599,11 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -9526,46 +9618,46 @@
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="73" t="s">
+      <c r="O5" s="136" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9597,7 +9689,7 @@
       <c r="I6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="85" t="s">
         <v>85</v>
       </c>
       <c r="K6" s="21" t="s">
@@ -9606,10 +9698,10 @@
       <c r="L6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="90" t="s">
+      <c r="N6" s="85" t="s">
         <v>85</v>
       </c>
       <c r="O6" s="21" t="s">
@@ -9679,28 +9771,28 @@
       <c r="G8" s="30">
         <v>0.05</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="71">
         <v>0.01</v>
       </c>
       <c r="I8" s="30">
         <v>0.08</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="71">
         <v>0.1</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="73">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="74">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="74">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="71">
         <v>0.02</v>
       </c>
-      <c r="O8" s="74">
+      <c r="O8" s="71">
         <v>0.11</v>
       </c>
     </row>
@@ -9708,7 +9800,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="78">
         <v>2.7</v>
       </c>
       <c r="C9" s="50">
@@ -9849,7 +9941,7 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="79">
         <f t="shared" ref="B12:C12" si="0">B8/B9</f>
         <v>0.28888888888888886</v>
       </c>
@@ -10215,11 +10307,11 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="72">
         <f t="shared" ref="B18:C18" si="13">B17/B8</f>
         <v>8.5347217220596128E-2</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="69">
         <f t="shared" si="13"/>
         <v>0.12782956723196895</v>
       </c>
@@ -10243,11 +10335,11 @@
         <f t="shared" si="14"/>
         <v>0.34759127661202976</v>
       </c>
-      <c r="I18" s="75">
+      <c r="I18" s="72">
         <f t="shared" si="14"/>
         <v>7.2623306651485406E-2</v>
       </c>
-      <c r="J18" s="75">
+      <c r="J18" s="72">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -10388,7 +10480,7 @@
         <f t="shared" ref="B21:O21" si="16">1-B20</f>
         <v>0.91465278277940387</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="82">
         <f t="shared" si="16"/>
         <v>0.94886817310721239</v>
       </c>
@@ -10442,7 +10534,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="85"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="33"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57"/>
@@ -10461,11 +10553,11 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="86">
+      <c r="B23" s="81">
         <f t="shared" ref="B23:O23" si="17">B21</f>
         <v>0.91465278277940387</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="83">
         <f t="shared" si="17"/>
         <v>0.94886817310721239</v>
       </c>
@@ -10577,7 +10669,7 @@
         <f>B23*B24</f>
         <v>1031.2344264724668</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="84">
         <f>C23*C24</f>
         <v>39.681666999343619</v>
       </c>
@@ -10684,9 +10776,9 @@
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
@@ -10745,8 +10837,8 @@
   </sheetPr>
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10758,7 +10850,7 @@
       <c r="B2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -11001,15 +11093,15 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="102">
+      <c r="B23" s="97">
         <f>B21*B22</f>
         <v>123.04881312639785</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="97">
         <f>C21*C22</f>
         <v>753.08238247814154</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="89">
         <f>SUM(B23:C23)</f>
         <v>876.13119560453936</v>
       </c>
@@ -11036,7 +11128,7 @@
   </sheetPr>
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -11046,10 +11138,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="153" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="147"/>
+      <c r="C2" s="151"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -11088,7 +11180,7 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="87">
         <v>0.06</v>
       </c>
       <c r="C6" s="20">
@@ -11257,8 +11349,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -11284,7 +11376,7 @@
       <c r="C22" s="65">
         <v>475.43</v>
       </c>
-      <c r="D22" s="99">
+      <c r="D22" s="94">
         <v>565.5</v>
       </c>
     </row>
@@ -11292,15 +11384,15 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="102">
+      <c r="B23" s="97">
         <f>B21*B22</f>
         <v>79.566996157585635</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="97">
         <f>C21*C22</f>
         <v>378.82423227545178</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="94">
         <f>SUM(B23:C23)</f>
         <v>458.39122843303744</v>
       </c>
@@ -11332,8 +11424,8 @@
   </sheetPr>
   <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A2" zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11345,7 +11437,7 @@
       <c r="B3" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -11384,10 +11476,10 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="93">
         <v>0.05</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="95">
         <v>0.39</v>
       </c>
     </row>
@@ -11596,7 +11688,7 @@
         <f>C22*C23</f>
         <v>1013.3765010882435</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="89">
         <f>SUM(B24:C24)</f>
         <v>1159.1795429666827</v>
       </c>
@@ -11623,8 +11715,8 @@
   </sheetPr>
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11632,13 +11724,13 @@
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="69"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -11649,7 +11741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -11660,7 +11752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -11671,18 +11763,18 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="87">
         <v>0.05</v>
       </c>
       <c r="C6" s="20">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -11693,7 +11785,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -11704,7 +11796,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -11715,7 +11807,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -11728,7 +11820,7 @@
         <v>6.4285714285714285E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -11740,8 +11832,9 @@
         <f t="shared" ref="C11" si="1">C10/C9</f>
         <v>9.1836734693877559E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="131"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -11754,7 +11847,7 @@
         <v>4.8299068313995453E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -11767,7 +11860,7 @@
         <v>0.28315785804693344</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -11780,7 +11873,7 @@
         <v>1.7057293993935311E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -11793,7 +11886,7 @@
         <v>2.5074222171084905E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -11851,11 +11944,11 @@
       <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="93">
+      <c r="B21" s="88">
         <f>B19</f>
         <v>0.9004488239185493</v>
       </c>
-      <c r="C21" s="93">
+      <c r="C21" s="88">
         <f>C19</f>
         <v>0.77711802514591199</v>
       </c>
@@ -11879,15 +11972,15 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="102">
+      <c r="B23" s="97">
         <f>B21*B22</f>
         <v>150.82517800635702</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="97">
         <f>C21*C22</f>
         <v>24.246082384552455</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="94">
         <f>SUM(B23:C23)</f>
         <v>175.07126039090949</v>
       </c>
